--- a/PhoenixCI/Excel_Template/60110.xlsx
+++ b/PhoenixCI/Excel_Template/60110.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Source\Repos\buckblader\RekindlePhoenixCI\PhoenixCI\Excel_Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDD5BD1D-E88A-4455-877A-BE28DBFBBC0C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DF07FDB-E6A5-4B57-A9A5-E74D35B2F1D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="14895" windowHeight="8505"/>
   </bookViews>
   <sheets>
     <sheet name="60110" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -313,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -373,6 +372,13 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -387,14 +393,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -752,47 +758,47 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="24" customWidth="1"/>
-    <col min="2" max="2" width="18.75" style="29" customWidth="1"/>
+    <col min="1" max="1" width="9" style="27" customWidth="1"/>
+    <col min="2" max="2" width="18.75" style="32" customWidth="1"/>
     <col min="3" max="11" width="11.625" style="3" customWidth="1"/>
     <col min="12" max="12" width="11.5" style="3" customWidth="1"/>
     <col min="13" max="16384" width="8.875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="16" customFormat="1" ht="21" customHeight="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
     </row>
     <row r="2" spans="1:12" s="16" customFormat="1" ht="24" customHeight="1">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
     </row>
     <row r="3" spans="1:12" ht="33">
-      <c r="A3" s="22"/>
+      <c r="A3" s="25"/>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -828,7 +834,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" s="7" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A4" s="23"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="4" t="s">
         <v>23</v>
       </c>
@@ -867,7 +873,7 @@
       <c r="A5" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C5" s="9"/>
@@ -888,8 +894,8 @@
       <c r="L5" s="17"/>
     </row>
     <row r="6" spans="1:12" ht="30" customHeight="1">
-      <c r="A6" s="25"/>
-      <c r="B6" s="26"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="19">
         <v>0</v>
       </c>
@@ -925,8 +931,8 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="30" customHeight="1">
-      <c r="A7" s="25"/>
-      <c r="B7" s="26"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="19">
         <v>0</v>
       </c>
@@ -962,8 +968,8 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="30" customHeight="1">
-      <c r="A8" s="25"/>
-      <c r="B8" s="26"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="29"/>
       <c r="C8" s="19">
         <v>0</v>
       </c>
@@ -999,8 +1005,8 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="30" customHeight="1">
-      <c r="A9" s="25"/>
-      <c r="B9" s="26"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="29"/>
       <c r="C9" s="19">
         <v>0</v>
       </c>
@@ -1036,8 +1042,8 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="30" customHeight="1">
-      <c r="A10" s="25"/>
-      <c r="B10" s="26"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="29"/>
       <c r="C10" s="19">
         <v>0</v>
       </c>
@@ -1073,8 +1079,8 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="30" customHeight="1">
-      <c r="A11" s="25"/>
-      <c r="B11" s="26"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="29"/>
       <c r="C11" s="19">
         <v>0</v>
       </c>
@@ -1110,8 +1116,8 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="30" customHeight="1">
-      <c r="A12" s="25"/>
-      <c r="B12" s="26"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="29"/>
       <c r="C12" s="19">
         <v>0</v>
       </c>
@@ -1147,8 +1153,8 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="30" customHeight="1">
-      <c r="A13" s="25"/>
-      <c r="B13" s="26"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="29"/>
       <c r="C13" s="19">
         <v>0</v>
       </c>
@@ -1183,157 +1189,157 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="30" customHeight="1">
-      <c r="A14" s="25"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="19">
-        <v>0</v>
-      </c>
-      <c r="D14" s="19">
-        <v>0</v>
-      </c>
-      <c r="E14" s="20">
+    <row r="14" spans="1:12" s="23" customFormat="1" ht="30" customHeight="1">
+      <c r="A14" s="28"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="21">
+        <v>0</v>
+      </c>
+      <c r="D14" s="21">
+        <v>0</v>
+      </c>
+      <c r="E14" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F14" s="19">
-        <v>0</v>
-      </c>
-      <c r="G14" s="20">
+      <c r="F14" s="21">
+        <v>0</v>
+      </c>
+      <c r="G14" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H14" s="19">
-        <v>0</v>
-      </c>
-      <c r="I14" s="19">
-        <v>0</v>
-      </c>
-      <c r="J14" s="20">
+      <c r="H14" s="21">
+        <v>0</v>
+      </c>
+      <c r="I14" s="21">
+        <v>0</v>
+      </c>
+      <c r="J14" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K14" s="19">
-        <v>0</v>
-      </c>
-      <c r="L14" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="30" customHeight="1">
-      <c r="A15" s="27"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="19">
-        <v>0</v>
-      </c>
-      <c r="D15" s="19">
-        <v>0</v>
-      </c>
-      <c r="E15" s="20">
+      <c r="K14" s="21">
+        <v>0</v>
+      </c>
+      <c r="L14" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="23" customFormat="1" ht="30" customHeight="1">
+      <c r="A15" s="30"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="21">
+        <v>0</v>
+      </c>
+      <c r="D15" s="21">
+        <v>0</v>
+      </c>
+      <c r="E15" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F15" s="19">
-        <v>0</v>
-      </c>
-      <c r="G15" s="20">
+      <c r="F15" s="21">
+        <v>0</v>
+      </c>
+      <c r="G15" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H15" s="19">
-        <v>0</v>
-      </c>
-      <c r="I15" s="19">
-        <v>0</v>
-      </c>
-      <c r="J15" s="20">
+      <c r="H15" s="21">
+        <v>0</v>
+      </c>
+      <c r="I15" s="21">
+        <v>0</v>
+      </c>
+      <c r="J15" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K15" s="19">
-        <v>0</v>
-      </c>
-      <c r="L15" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="30" customHeight="1">
-      <c r="A16" s="27"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="19">
-        <v>0</v>
-      </c>
-      <c r="D16" s="19">
-        <v>0</v>
-      </c>
-      <c r="E16" s="20">
+      <c r="K15" s="21">
+        <v>0</v>
+      </c>
+      <c r="L15" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="23" customFormat="1" ht="30" customHeight="1">
+      <c r="A16" s="30"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="21">
+        <v>0</v>
+      </c>
+      <c r="D16" s="21">
+        <v>0</v>
+      </c>
+      <c r="E16" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F16" s="19">
-        <v>0</v>
-      </c>
-      <c r="G16" s="20">
+      <c r="F16" s="21">
+        <v>0</v>
+      </c>
+      <c r="G16" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H16" s="19">
-        <v>0</v>
-      </c>
-      <c r="I16" s="19">
-        <v>0</v>
-      </c>
-      <c r="J16" s="20">
+      <c r="H16" s="21">
+        <v>0</v>
+      </c>
+      <c r="I16" s="21">
+        <v>0</v>
+      </c>
+      <c r="J16" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K16" s="19">
-        <v>0</v>
-      </c>
-      <c r="L16" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="30" customHeight="1">
-      <c r="A17" s="27"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="19">
-        <v>0</v>
-      </c>
-      <c r="D17" s="19">
-        <v>0</v>
-      </c>
-      <c r="E17" s="20">
+      <c r="K16" s="21">
+        <v>0</v>
+      </c>
+      <c r="L16" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="23" customFormat="1" ht="30" customHeight="1">
+      <c r="A17" s="30"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="21">
+        <v>0</v>
+      </c>
+      <c r="D17" s="21">
+        <v>0</v>
+      </c>
+      <c r="E17" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F17" s="19">
-        <v>0</v>
-      </c>
-      <c r="G17" s="20">
+      <c r="F17" s="21">
+        <v>0</v>
+      </c>
+      <c r="G17" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H17" s="19">
-        <v>0</v>
-      </c>
-      <c r="I17" s="19">
-        <v>0</v>
-      </c>
-      <c r="J17" s="20">
+      <c r="H17" s="21">
+        <v>0</v>
+      </c>
+      <c r="I17" s="21">
+        <v>0</v>
+      </c>
+      <c r="J17" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K17" s="19">
-        <v>0</v>
-      </c>
-      <c r="L17" s="19">
+      <c r="K17" s="21">
+        <v>0</v>
+      </c>
+      <c r="L17" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
-      <c r="A18" s="27"/>
-      <c r="B18" s="28"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="19">
         <v>0</v>
       </c>
@@ -1369,8 +1375,8 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="30" customHeight="1">
-      <c r="A19" s="25"/>
-      <c r="B19" s="26"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="29"/>
       <c r="C19" s="19">
         <v>0</v>
       </c>
@@ -1406,8 +1412,8 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="30" customHeight="1">
-      <c r="A20" s="25"/>
-      <c r="B20" s="26"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="29"/>
       <c r="C20" s="19">
         <v>0</v>
       </c>
@@ -1443,8 +1449,8 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="30" customHeight="1">
-      <c r="A21" s="25"/>
-      <c r="B21" s="26"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="29"/>
       <c r="C21" s="19">
         <v>0</v>
       </c>
@@ -1480,8 +1486,8 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="30" customHeight="1">
-      <c r="A22" s="25"/>
-      <c r="B22" s="26"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="29"/>
       <c r="C22" s="19">
         <v>0</v>
       </c>
@@ -1516,120 +1522,120 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="30" customHeight="1">
-      <c r="A23" s="25"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="19">
-        <v>0</v>
-      </c>
-      <c r="D23" s="19">
-        <v>0</v>
-      </c>
-      <c r="E23" s="20">
+    <row r="23" spans="1:12" s="23" customFormat="1" ht="30" customHeight="1">
+      <c r="A23" s="28"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="21">
+        <v>0</v>
+      </c>
+      <c r="D23" s="21">
+        <v>0</v>
+      </c>
+      <c r="E23" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F23" s="19">
-        <v>0</v>
-      </c>
-      <c r="G23" s="20">
+      <c r="F23" s="21">
+        <v>0</v>
+      </c>
+      <c r="G23" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H23" s="19">
-        <v>0</v>
-      </c>
-      <c r="I23" s="19">
-        <v>0</v>
-      </c>
-      <c r="J23" s="20">
+      <c r="H23" s="21">
+        <v>0</v>
+      </c>
+      <c r="I23" s="21">
+        <v>0</v>
+      </c>
+      <c r="J23" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K23" s="19">
-        <v>0</v>
-      </c>
-      <c r="L23" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="30" customHeight="1">
-      <c r="A24" s="27"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="19">
-        <v>0</v>
-      </c>
-      <c r="D24" s="19">
-        <v>0</v>
-      </c>
-      <c r="E24" s="20">
+      <c r="K23" s="21">
+        <v>0</v>
+      </c>
+      <c r="L23" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="23" customFormat="1" ht="30" customHeight="1">
+      <c r="A24" s="30"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="21">
+        <v>0</v>
+      </c>
+      <c r="D24" s="21">
+        <v>0</v>
+      </c>
+      <c r="E24" s="22">
         <f>IF(D24=0,0,(C24-D24)/D24)</f>
         <v>0</v>
       </c>
-      <c r="F24" s="19">
-        <v>0</v>
-      </c>
-      <c r="G24" s="20">
+      <c r="F24" s="21">
+        <v>0</v>
+      </c>
+      <c r="G24" s="22">
         <f>IF(F24=0,0,(C24-F24)/F24)</f>
         <v>0</v>
       </c>
-      <c r="H24" s="19">
-        <v>0</v>
-      </c>
-      <c r="I24" s="19">
-        <v>0</v>
-      </c>
-      <c r="J24" s="20">
+      <c r="H24" s="21">
+        <v>0</v>
+      </c>
+      <c r="I24" s="21">
+        <v>0</v>
+      </c>
+      <c r="J24" s="22">
         <f>IF(I24=0,0,(H24-I24)/I24)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="19">
-        <v>0</v>
-      </c>
-      <c r="L24" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="30" customHeight="1">
-      <c r="A25" s="27"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="19">
-        <v>0</v>
-      </c>
-      <c r="D25" s="19">
-        <v>0</v>
-      </c>
-      <c r="E25" s="20">
+      <c r="K24" s="21">
+        <v>0</v>
+      </c>
+      <c r="L24" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="23" customFormat="1" ht="30" customHeight="1">
+      <c r="A25" s="30"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="21">
+        <v>0</v>
+      </c>
+      <c r="D25" s="21">
+        <v>0</v>
+      </c>
+      <c r="E25" s="22">
         <f t="shared" ref="E25:E30" si="6">IF(D25=0,0,(C25-D25)/D25)</f>
         <v>0</v>
       </c>
-      <c r="F25" s="19">
-        <v>0</v>
-      </c>
-      <c r="G25" s="20">
+      <c r="F25" s="21">
+        <v>0</v>
+      </c>
+      <c r="G25" s="22">
         <f t="shared" ref="G25:G30" si="7">IF(F25=0,0,(C25-F25)/F25)</f>
         <v>0</v>
       </c>
-      <c r="H25" s="19">
-        <v>0</v>
-      </c>
-      <c r="I25" s="19">
-        <v>0</v>
-      </c>
-      <c r="J25" s="20">
+      <c r="H25" s="21">
+        <v>0</v>
+      </c>
+      <c r="I25" s="21">
+        <v>0</v>
+      </c>
+      <c r="J25" s="22">
         <f t="shared" ref="J25:J30" si="8">IF(I25=0,0,(H25-I25)/I25)</f>
         <v>0</v>
       </c>
-      <c r="K25" s="19">
-        <v>0</v>
-      </c>
-      <c r="L25" s="19">
+      <c r="K25" s="21">
+        <v>0</v>
+      </c>
+      <c r="L25" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="30" customHeight="1">
-      <c r="A26" s="27"/>
-      <c r="B26" s="28"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="31"/>
       <c r="C26" s="19">
         <v>0</v>
       </c>
@@ -1665,8 +1671,8 @@
       </c>
     </row>
     <row r="27" spans="1:12" ht="30" customHeight="1">
-      <c r="A27" s="25"/>
-      <c r="B27" s="26"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="29"/>
       <c r="C27" s="19">
         <v>0</v>
       </c>
@@ -1702,8 +1708,8 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="30" customHeight="1">
-      <c r="A28" s="25"/>
-      <c r="B28" s="26"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="29"/>
       <c r="C28" s="19">
         <v>0</v>
       </c>
@@ -1739,8 +1745,8 @@
       </c>
     </row>
     <row r="29" spans="1:12" ht="30" customHeight="1">
-      <c r="A29" s="25"/>
-      <c r="B29" s="26"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="29"/>
       <c r="C29" s="19">
         <v>0</v>
       </c>
@@ -1776,8 +1782,8 @@
       </c>
     </row>
     <row r="30" spans="1:12" ht="30" customHeight="1">
-      <c r="A30" s="25"/>
-      <c r="B30" s="26"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="29"/>
       <c r="C30" s="19">
         <v>0</v>
       </c>
@@ -1813,8 +1819,8 @@
       </c>
     </row>
     <row r="31" spans="1:12" ht="30" customHeight="1">
-      <c r="A31" s="25"/>
-      <c r="B31" s="26"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="29"/>
       <c r="C31" s="19">
         <v>0</v>
       </c>
@@ -1850,8 +1856,8 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="30" customHeight="1">
-      <c r="A32" s="25"/>
-      <c r="B32" s="26"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="29"/>
       <c r="C32" s="19">
         <v>0</v>
       </c>
@@ -1887,8 +1893,8 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="30" customHeight="1">
-      <c r="A33" s="25"/>
-      <c r="B33" s="26"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="29"/>
       <c r="C33" s="19">
         <v>0</v>
       </c>
@@ -1923,157 +1929,157 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="30" customHeight="1">
-      <c r="A34" s="27"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="19">
-        <v>0</v>
-      </c>
-      <c r="D34" s="19">
-        <v>0</v>
-      </c>
-      <c r="E34" s="20">
+    <row r="34" spans="1:12" s="23" customFormat="1" ht="30" customHeight="1">
+      <c r="A34" s="30"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="21">
+        <v>0</v>
+      </c>
+      <c r="D34" s="21">
+        <v>0</v>
+      </c>
+      <c r="E34" s="22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F34" s="19">
-        <v>0</v>
-      </c>
-      <c r="G34" s="20">
+      <c r="F34" s="21">
+        <v>0</v>
+      </c>
+      <c r="G34" s="22">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H34" s="19">
-        <v>0</v>
-      </c>
-      <c r="I34" s="19">
-        <v>0</v>
-      </c>
-      <c r="J34" s="20">
+      <c r="H34" s="21">
+        <v>0</v>
+      </c>
+      <c r="I34" s="21">
+        <v>0</v>
+      </c>
+      <c r="J34" s="22">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="K34" s="19">
-        <v>0</v>
-      </c>
-      <c r="L34" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="30" customHeight="1">
-      <c r="A35" s="27"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="19">
-        <v>0</v>
-      </c>
-      <c r="D35" s="19">
-        <v>0</v>
-      </c>
-      <c r="E35" s="20">
+      <c r="K34" s="21">
+        <v>0</v>
+      </c>
+      <c r="L34" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" s="23" customFormat="1" ht="30" customHeight="1">
+      <c r="A35" s="30"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="21">
+        <v>0</v>
+      </c>
+      <c r="D35" s="21">
+        <v>0</v>
+      </c>
+      <c r="E35" s="22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F35" s="19">
-        <v>0</v>
-      </c>
-      <c r="G35" s="20">
+      <c r="F35" s="21">
+        <v>0</v>
+      </c>
+      <c r="G35" s="22">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H35" s="19">
-        <v>0</v>
-      </c>
-      <c r="I35" s="19">
-        <v>0</v>
-      </c>
-      <c r="J35" s="20">
+      <c r="H35" s="21">
+        <v>0</v>
+      </c>
+      <c r="I35" s="21">
+        <v>0</v>
+      </c>
+      <c r="J35" s="22">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="K35" s="19">
-        <v>0</v>
-      </c>
-      <c r="L35" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="30" customHeight="1">
-      <c r="A36" s="27"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="19">
-        <v>0</v>
-      </c>
-      <c r="D36" s="19">
-        <v>0</v>
-      </c>
-      <c r="E36" s="20">
+      <c r="K35" s="21">
+        <v>0</v>
+      </c>
+      <c r="L35" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" s="23" customFormat="1" ht="30" customHeight="1">
+      <c r="A36" s="30"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="21">
+        <v>0</v>
+      </c>
+      <c r="D36" s="21">
+        <v>0</v>
+      </c>
+      <c r="E36" s="22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F36" s="19">
-        <v>0</v>
-      </c>
-      <c r="G36" s="20">
+      <c r="F36" s="21">
+        <v>0</v>
+      </c>
+      <c r="G36" s="22">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H36" s="19">
-        <v>0</v>
-      </c>
-      <c r="I36" s="19">
-        <v>0</v>
-      </c>
-      <c r="J36" s="20">
+      <c r="H36" s="21">
+        <v>0</v>
+      </c>
+      <c r="I36" s="21">
+        <v>0</v>
+      </c>
+      <c r="J36" s="22">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="K36" s="19">
-        <v>0</v>
-      </c>
-      <c r="L36" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="30" customHeight="1">
-      <c r="A37" s="27"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="19">
-        <v>0</v>
-      </c>
-      <c r="D37" s="19">
-        <v>0</v>
-      </c>
-      <c r="E37" s="20">
+      <c r="K36" s="21">
+        <v>0</v>
+      </c>
+      <c r="L36" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" s="23" customFormat="1" ht="30" customHeight="1">
+      <c r="A37" s="30"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="21">
+        <v>0</v>
+      </c>
+      <c r="D37" s="21">
+        <v>0</v>
+      </c>
+      <c r="E37" s="22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F37" s="19">
-        <v>0</v>
-      </c>
-      <c r="G37" s="20">
+      <c r="F37" s="21">
+        <v>0</v>
+      </c>
+      <c r="G37" s="22">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H37" s="19">
-        <v>0</v>
-      </c>
-      <c r="I37" s="19">
-        <v>0</v>
-      </c>
-      <c r="J37" s="20">
+      <c r="H37" s="21">
+        <v>0</v>
+      </c>
+      <c r="I37" s="21">
+        <v>0</v>
+      </c>
+      <c r="J37" s="22">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="K37" s="19">
-        <v>0</v>
-      </c>
-      <c r="L37" s="19">
+      <c r="K37" s="21">
+        <v>0</v>
+      </c>
+      <c r="L37" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="30" customHeight="1">
-      <c r="A38" s="25"/>
-      <c r="B38" s="26"/>
+      <c r="A38" s="28"/>
+      <c r="B38" s="29"/>
       <c r="C38" s="19">
         <v>0</v>
       </c>
@@ -2109,8 +2115,8 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="30" customHeight="1">
-      <c r="A39" s="25"/>
-      <c r="B39" s="26"/>
+      <c r="A39" s="28"/>
+      <c r="B39" s="29"/>
       <c r="C39" s="19">
         <v>0</v>
       </c>
@@ -2146,8 +2152,8 @@
       </c>
     </row>
     <row r="40" spans="1:12" ht="30" customHeight="1">
-      <c r="A40" s="25"/>
-      <c r="B40" s="26"/>
+      <c r="A40" s="28"/>
+      <c r="B40" s="29"/>
       <c r="C40" s="19">
         <v>0</v>
       </c>
@@ -2183,8 +2189,8 @@
       </c>
     </row>
     <row r="41" spans="1:12" ht="30" customHeight="1">
-      <c r="A41" s="25"/>
-      <c r="B41" s="26"/>
+      <c r="A41" s="28"/>
+      <c r="B41" s="29"/>
       <c r="C41" s="19">
         <v>0</v>
       </c>
@@ -2220,8 +2226,8 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30" customHeight="1">
-      <c r="A42" s="25"/>
-      <c r="B42" s="26"/>
+      <c r="A42" s="28"/>
+      <c r="B42" s="29"/>
       <c r="C42" s="19">
         <v>0</v>
       </c>
@@ -2256,83 +2262,83 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="30" customHeight="1">
-      <c r="A43" s="27"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="19">
-        <v>0</v>
-      </c>
-      <c r="D43" s="19">
-        <v>0</v>
-      </c>
-      <c r="E43" s="20">
+    <row r="43" spans="1:12" s="23" customFormat="1" ht="30" customHeight="1">
+      <c r="A43" s="30"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="21">
+        <v>0</v>
+      </c>
+      <c r="D43" s="21">
+        <v>0</v>
+      </c>
+      <c r="E43" s="22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F43" s="19">
-        <v>0</v>
-      </c>
-      <c r="G43" s="20">
+      <c r="F43" s="21">
+        <v>0</v>
+      </c>
+      <c r="G43" s="22">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H43" s="19">
-        <v>0</v>
-      </c>
-      <c r="I43" s="19">
-        <v>0</v>
-      </c>
-      <c r="J43" s="20">
+      <c r="H43" s="21">
+        <v>0</v>
+      </c>
+      <c r="I43" s="21">
+        <v>0</v>
+      </c>
+      <c r="J43" s="22">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="K43" s="19">
-        <v>0</v>
-      </c>
-      <c r="L43" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="30" customHeight="1">
-      <c r="A44" s="27"/>
-      <c r="B44" s="28"/>
-      <c r="C44" s="19">
-        <v>0</v>
-      </c>
-      <c r="D44" s="19">
-        <v>0</v>
-      </c>
-      <c r="E44" s="20">
+      <c r="K43" s="21">
+        <v>0</v>
+      </c>
+      <c r="L43" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" s="23" customFormat="1" ht="30" customHeight="1">
+      <c r="A44" s="30"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="21">
+        <v>0</v>
+      </c>
+      <c r="D44" s="21">
+        <v>0</v>
+      </c>
+      <c r="E44" s="22">
         <f t="shared" ref="E44:E50" si="12">IF(D44=0,0,(C44-D44)/D44)</f>
         <v>0</v>
       </c>
-      <c r="F44" s="19">
-        <v>0</v>
-      </c>
-      <c r="G44" s="20">
+      <c r="F44" s="21">
+        <v>0</v>
+      </c>
+      <c r="G44" s="22">
         <f t="shared" ref="G44:G50" si="13">IF(F44=0,0,(C44-F44)/F44)</f>
         <v>0</v>
       </c>
-      <c r="H44" s="19">
-        <v>0</v>
-      </c>
-      <c r="I44" s="19">
-        <v>0</v>
-      </c>
-      <c r="J44" s="20">
+      <c r="H44" s="21">
+        <v>0</v>
+      </c>
+      <c r="I44" s="21">
+        <v>0</v>
+      </c>
+      <c r="J44" s="22">
         <f t="shared" ref="J44:J50" si="14">IF(I44=0,0,(H44-I44)/I44)</f>
         <v>0</v>
       </c>
-      <c r="K44" s="19">
-        <v>0</v>
-      </c>
-      <c r="L44" s="19">
+      <c r="K44" s="21">
+        <v>0</v>
+      </c>
+      <c r="L44" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="30" customHeight="1">
-      <c r="A45" s="25"/>
-      <c r="B45" s="26"/>
+      <c r="A45" s="28"/>
+      <c r="B45" s="29"/>
       <c r="C45" s="19">
         <v>0</v>
       </c>
@@ -2368,8 +2374,8 @@
       </c>
     </row>
     <row r="46" spans="1:12" ht="30" customHeight="1">
-      <c r="A46" s="25"/>
-      <c r="B46" s="26"/>
+      <c r="A46" s="28"/>
+      <c r="B46" s="29"/>
       <c r="C46" s="19">
         <v>0</v>
       </c>
@@ -2405,8 +2411,8 @@
       </c>
     </row>
     <row r="47" spans="1:12" ht="30" customHeight="1">
-      <c r="A47" s="25"/>
-      <c r="B47" s="26"/>
+      <c r="A47" s="28"/>
+      <c r="B47" s="29"/>
       <c r="C47" s="19">
         <v>0</v>
       </c>
@@ -2442,8 +2448,8 @@
       </c>
     </row>
     <row r="48" spans="1:12" ht="30" customHeight="1">
-      <c r="A48" s="25"/>
-      <c r="B48" s="26"/>
+      <c r="A48" s="28"/>
+      <c r="B48" s="29"/>
       <c r="C48" s="19">
         <v>0</v>
       </c>
@@ -2479,8 +2485,8 @@
       </c>
     </row>
     <row r="49" spans="1:12" ht="30" customHeight="1">
-      <c r="A49" s="25"/>
-      <c r="B49" s="26"/>
+      <c r="A49" s="28"/>
+      <c r="B49" s="29"/>
       <c r="C49" s="19">
         <v>0</v>
       </c>
@@ -2516,8 +2522,8 @@
       </c>
     </row>
     <row r="50" spans="1:12" ht="30" customHeight="1">
-      <c r="A50" s="25"/>
-      <c r="B50" s="26"/>
+      <c r="A50" s="28"/>
+      <c r="B50" s="29"/>
       <c r="C50" s="19">
         <v>0</v>
       </c>
@@ -2553,8 +2559,8 @@
       </c>
     </row>
     <row r="51" spans="1:12" ht="30" customHeight="1">
-      <c r="A51" s="25"/>
-      <c r="B51" s="26"/>
+      <c r="A51" s="28"/>
+      <c r="B51" s="29"/>
       <c r="C51" s="19">
         <v>0</v>
       </c>
@@ -2589,157 +2595,157 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="30" customHeight="1">
-      <c r="A52" s="27"/>
-      <c r="B52" s="28"/>
-      <c r="C52" s="19">
-        <v>0</v>
-      </c>
-      <c r="D52" s="19">
-        <v>0</v>
-      </c>
-      <c r="E52" s="20">
+    <row r="52" spans="1:12" s="23" customFormat="1" ht="30" customHeight="1">
+      <c r="A52" s="30"/>
+      <c r="B52" s="31"/>
+      <c r="C52" s="21">
+        <v>0</v>
+      </c>
+      <c r="D52" s="21">
+        <v>0</v>
+      </c>
+      <c r="E52" s="22">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F52" s="19">
-        <v>0</v>
-      </c>
-      <c r="G52" s="20">
+      <c r="F52" s="21">
+        <v>0</v>
+      </c>
+      <c r="G52" s="22">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="H52" s="19">
-        <v>0</v>
-      </c>
-      <c r="I52" s="19">
-        <v>0</v>
-      </c>
-      <c r="J52" s="20">
+      <c r="H52" s="21">
+        <v>0</v>
+      </c>
+      <c r="I52" s="21">
+        <v>0</v>
+      </c>
+      <c r="J52" s="22">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K52" s="19">
-        <v>0</v>
-      </c>
-      <c r="L52" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" ht="30" customHeight="1">
-      <c r="A53" s="27"/>
-      <c r="B53" s="28"/>
-      <c r="C53" s="19">
-        <v>0</v>
-      </c>
-      <c r="D53" s="19">
-        <v>0</v>
-      </c>
-      <c r="E53" s="20">
+      <c r="K52" s="21">
+        <v>0</v>
+      </c>
+      <c r="L52" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" s="23" customFormat="1" ht="30" customHeight="1">
+      <c r="A53" s="30"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="21">
+        <v>0</v>
+      </c>
+      <c r="D53" s="21">
+        <v>0</v>
+      </c>
+      <c r="E53" s="22">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F53" s="19">
-        <v>0</v>
-      </c>
-      <c r="G53" s="20">
+      <c r="F53" s="21">
+        <v>0</v>
+      </c>
+      <c r="G53" s="22">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="H53" s="19">
-        <v>0</v>
-      </c>
-      <c r="I53" s="19">
-        <v>0</v>
-      </c>
-      <c r="J53" s="20">
+      <c r="H53" s="21">
+        <v>0</v>
+      </c>
+      <c r="I53" s="21">
+        <v>0</v>
+      </c>
+      <c r="J53" s="22">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K53" s="19">
-        <v>0</v>
-      </c>
-      <c r="L53" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" ht="30" customHeight="1">
-      <c r="A54" s="27"/>
-      <c r="B54" s="28"/>
-      <c r="C54" s="19">
-        <v>0</v>
-      </c>
-      <c r="D54" s="19">
-        <v>0</v>
-      </c>
-      <c r="E54" s="20">
+      <c r="K53" s="21">
+        <v>0</v>
+      </c>
+      <c r="L53" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" s="23" customFormat="1" ht="30" customHeight="1">
+      <c r="A54" s="30"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="21">
+        <v>0</v>
+      </c>
+      <c r="D54" s="21">
+        <v>0</v>
+      </c>
+      <c r="E54" s="22">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F54" s="19">
-        <v>0</v>
-      </c>
-      <c r="G54" s="20">
+      <c r="F54" s="21">
+        <v>0</v>
+      </c>
+      <c r="G54" s="22">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="H54" s="19">
-        <v>0</v>
-      </c>
-      <c r="I54" s="19">
-        <v>0</v>
-      </c>
-      <c r="J54" s="20">
+      <c r="H54" s="21">
+        <v>0</v>
+      </c>
+      <c r="I54" s="21">
+        <v>0</v>
+      </c>
+      <c r="J54" s="22">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K54" s="19">
-        <v>0</v>
-      </c>
-      <c r="L54" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="30" customHeight="1">
-      <c r="A55" s="27"/>
-      <c r="B55" s="28"/>
-      <c r="C55" s="19">
-        <v>0</v>
-      </c>
-      <c r="D55" s="19">
-        <v>0</v>
-      </c>
-      <c r="E55" s="20">
+      <c r="K54" s="21">
+        <v>0</v>
+      </c>
+      <c r="L54" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" s="23" customFormat="1" ht="30" customHeight="1">
+      <c r="A55" s="30"/>
+      <c r="B55" s="31"/>
+      <c r="C55" s="21">
+        <v>0</v>
+      </c>
+      <c r="D55" s="21">
+        <v>0</v>
+      </c>
+      <c r="E55" s="22">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F55" s="19">
-        <v>0</v>
-      </c>
-      <c r="G55" s="20">
+      <c r="F55" s="21">
+        <v>0</v>
+      </c>
+      <c r="G55" s="22">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="H55" s="19">
-        <v>0</v>
-      </c>
-      <c r="I55" s="19">
-        <v>0</v>
-      </c>
-      <c r="J55" s="20">
+      <c r="H55" s="21">
+        <v>0</v>
+      </c>
+      <c r="I55" s="21">
+        <v>0</v>
+      </c>
+      <c r="J55" s="22">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K55" s="19">
-        <v>0</v>
-      </c>
-      <c r="L55" s="19">
+      <c r="K55" s="21">
+        <v>0</v>
+      </c>
+      <c r="L55" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="30" customHeight="1">
-      <c r="A56" s="25"/>
-      <c r="B56" s="26"/>
+      <c r="A56" s="28"/>
+      <c r="B56" s="29"/>
       <c r="C56" s="19">
         <v>0</v>
       </c>
@@ -2775,8 +2781,8 @@
       </c>
     </row>
     <row r="57" spans="1:12" ht="30" customHeight="1">
-      <c r="A57" s="25"/>
-      <c r="B57" s="26"/>
+      <c r="A57" s="28"/>
+      <c r="B57" s="29"/>
       <c r="C57" s="19">
         <v>0</v>
       </c>
@@ -2812,8 +2818,8 @@
       </c>
     </row>
     <row r="58" spans="1:12" ht="30" customHeight="1">
-      <c r="A58" s="25"/>
-      <c r="B58" s="26"/>
+      <c r="A58" s="28"/>
+      <c r="B58" s="29"/>
       <c r="C58" s="19">
         <v>0</v>
       </c>
@@ -2849,8 +2855,8 @@
       </c>
     </row>
     <row r="59" spans="1:12" ht="30" customHeight="1">
-      <c r="A59" s="25"/>
-      <c r="B59" s="26"/>
+      <c r="A59" s="28"/>
+      <c r="B59" s="29"/>
       <c r="C59" s="19">
         <v>0</v>
       </c>
@@ -2886,8 +2892,8 @@
       </c>
     </row>
     <row r="60" spans="1:12" ht="30" customHeight="1">
-      <c r="A60" s="25"/>
-      <c r="B60" s="26"/>
+      <c r="A60" s="28"/>
+      <c r="B60" s="29"/>
       <c r="C60" s="19">
         <v>0</v>
       </c>
@@ -2922,120 +2928,120 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="30" customHeight="1">
-      <c r="A61" s="27"/>
-      <c r="B61" s="28"/>
-      <c r="C61" s="19">
-        <v>0</v>
-      </c>
-      <c r="D61" s="19">
-        <v>0</v>
-      </c>
-      <c r="E61" s="20">
+    <row r="61" spans="1:12" s="23" customFormat="1" ht="30" customHeight="1">
+      <c r="A61" s="30"/>
+      <c r="B61" s="31"/>
+      <c r="C61" s="21">
+        <v>0</v>
+      </c>
+      <c r="D61" s="21">
+        <v>0</v>
+      </c>
+      <c r="E61" s="22">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F61" s="19">
-        <v>0</v>
-      </c>
-      <c r="G61" s="20">
+      <c r="F61" s="21">
+        <v>0</v>
+      </c>
+      <c r="G61" s="22">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="H61" s="19">
-        <v>0</v>
-      </c>
-      <c r="I61" s="19">
-        <v>0</v>
-      </c>
-      <c r="J61" s="20">
+      <c r="H61" s="21">
+        <v>0</v>
+      </c>
+      <c r="I61" s="21">
+        <v>0</v>
+      </c>
+      <c r="J61" s="22">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K61" s="19">
-        <v>0</v>
-      </c>
-      <c r="L61" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" ht="30" customHeight="1">
-      <c r="A62" s="27"/>
-      <c r="B62" s="28"/>
-      <c r="C62" s="19">
-        <v>0</v>
-      </c>
-      <c r="D62" s="19">
-        <v>0</v>
-      </c>
-      <c r="E62" s="20">
+      <c r="K61" s="21">
+        <v>0</v>
+      </c>
+      <c r="L61" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" s="23" customFormat="1" ht="30" customHeight="1">
+      <c r="A62" s="30"/>
+      <c r="B62" s="31"/>
+      <c r="C62" s="21">
+        <v>0</v>
+      </c>
+      <c r="D62" s="21">
+        <v>0</v>
+      </c>
+      <c r="E62" s="22">
         <f>IF(D62=0,0,(C62-D62)/D62)</f>
         <v>0</v>
       </c>
-      <c r="F62" s="19">
-        <v>0</v>
-      </c>
-      <c r="G62" s="20">
+      <c r="F62" s="21">
+        <v>0</v>
+      </c>
+      <c r="G62" s="22">
         <f>IF(F62=0,0,(C62-F62)/F62)</f>
         <v>0</v>
       </c>
-      <c r="H62" s="19">
-        <v>0</v>
-      </c>
-      <c r="I62" s="19">
-        <v>0</v>
-      </c>
-      <c r="J62" s="20">
+      <c r="H62" s="21">
+        <v>0</v>
+      </c>
+      <c r="I62" s="21">
+        <v>0</v>
+      </c>
+      <c r="J62" s="22">
         <f>IF(I62=0,0,(H62-I62)/I62)</f>
         <v>0</v>
       </c>
-      <c r="K62" s="19">
-        <v>0</v>
-      </c>
-      <c r="L62" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" ht="30" customHeight="1">
-      <c r="A63" s="27"/>
-      <c r="B63" s="28"/>
-      <c r="C63" s="19">
-        <v>0</v>
-      </c>
-      <c r="D63" s="19">
-        <v>0</v>
-      </c>
-      <c r="E63" s="20">
+      <c r="K62" s="21">
+        <v>0</v>
+      </c>
+      <c r="L62" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" s="23" customFormat="1" ht="30" customHeight="1">
+      <c r="A63" s="30"/>
+      <c r="B63" s="31"/>
+      <c r="C63" s="21">
+        <v>0</v>
+      </c>
+      <c r="D63" s="21">
+        <v>0</v>
+      </c>
+      <c r="E63" s="22">
         <f t="shared" ref="E63:E68" si="18">IF(D63=0,0,(C63-D63)/D63)</f>
         <v>0</v>
       </c>
-      <c r="F63" s="19">
-        <v>0</v>
-      </c>
-      <c r="G63" s="20">
+      <c r="F63" s="21">
+        <v>0</v>
+      </c>
+      <c r="G63" s="22">
         <f t="shared" ref="G63:G68" si="19">IF(F63=0,0,(C63-F63)/F63)</f>
         <v>0</v>
       </c>
-      <c r="H63" s="19">
-        <v>0</v>
-      </c>
-      <c r="I63" s="19">
-        <v>0</v>
-      </c>
-      <c r="J63" s="20">
+      <c r="H63" s="21">
+        <v>0</v>
+      </c>
+      <c r="I63" s="21">
+        <v>0</v>
+      </c>
+      <c r="J63" s="22">
         <f t="shared" ref="J63:J68" si="20">IF(I63=0,0,(H63-I63)/I63)</f>
         <v>0</v>
       </c>
-      <c r="K63" s="19">
-        <v>0</v>
-      </c>
-      <c r="L63" s="19">
+      <c r="K63" s="21">
+        <v>0</v>
+      </c>
+      <c r="L63" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="30" customHeight="1">
-      <c r="A64" s="25"/>
-      <c r="B64" s="26"/>
+      <c r="A64" s="28"/>
+      <c r="B64" s="29"/>
       <c r="C64" s="19">
         <v>0</v>
       </c>
@@ -3071,8 +3077,8 @@
       </c>
     </row>
     <row r="65" spans="1:12" ht="30" customHeight="1">
-      <c r="A65" s="25"/>
-      <c r="B65" s="26"/>
+      <c r="A65" s="28"/>
+      <c r="B65" s="29"/>
       <c r="C65" s="19">
         <v>0</v>
       </c>
@@ -3108,8 +3114,8 @@
       </c>
     </row>
     <row r="66" spans="1:12" ht="30" customHeight="1">
-      <c r="A66" s="25"/>
-      <c r="B66" s="26"/>
+      <c r="A66" s="28"/>
+      <c r="B66" s="29"/>
       <c r="C66" s="19">
         <v>0</v>
       </c>
@@ -3145,8 +3151,8 @@
       </c>
     </row>
     <row r="67" spans="1:12" ht="30" customHeight="1">
-      <c r="A67" s="25"/>
-      <c r="B67" s="26"/>
+      <c r="A67" s="28"/>
+      <c r="B67" s="29"/>
       <c r="C67" s="19">
         <v>0</v>
       </c>
@@ -3182,8 +3188,8 @@
       </c>
     </row>
     <row r="68" spans="1:12" ht="30" customHeight="1">
-      <c r="A68" s="25"/>
-      <c r="B68" s="26"/>
+      <c r="A68" s="28"/>
+      <c r="B68" s="29"/>
       <c r="C68" s="19">
         <v>0</v>
       </c>
@@ -3219,8 +3225,8 @@
       </c>
     </row>
     <row r="69" spans="1:12" ht="30" customHeight="1">
-      <c r="A69" s="25"/>
-      <c r="B69" s="26"/>
+      <c r="A69" s="28"/>
+      <c r="B69" s="29"/>
       <c r="C69" s="19">
         <v>0</v>
       </c>
@@ -3256,8 +3262,8 @@
       </c>
     </row>
     <row r="70" spans="1:12" ht="30" customHeight="1">
-      <c r="A70" s="25"/>
-      <c r="B70" s="26"/>
+      <c r="A70" s="28"/>
+      <c r="B70" s="29"/>
       <c r="C70" s="19">
         <v>0</v>
       </c>
@@ -3293,8 +3299,8 @@
       </c>
     </row>
     <row r="71" spans="1:12" ht="30" customHeight="1">
-      <c r="A71" s="25"/>
-      <c r="B71" s="26"/>
+      <c r="A71" s="28"/>
+      <c r="B71" s="29"/>
       <c r="C71" s="19">
         <v>0</v>
       </c>
@@ -3329,157 +3335,157 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="30" customHeight="1">
-      <c r="A72" s="27"/>
-      <c r="B72" s="28"/>
-      <c r="C72" s="19">
-        <v>0</v>
-      </c>
-      <c r="D72" s="19">
-        <v>0</v>
-      </c>
-      <c r="E72" s="20">
+    <row r="72" spans="1:12" s="23" customFormat="1" ht="30" customHeight="1">
+      <c r="A72" s="30"/>
+      <c r="B72" s="31"/>
+      <c r="C72" s="21">
+        <v>0</v>
+      </c>
+      <c r="D72" s="21">
+        <v>0</v>
+      </c>
+      <c r="E72" s="22">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="F72" s="19">
-        <v>0</v>
-      </c>
-      <c r="G72" s="20">
+      <c r="F72" s="21">
+        <v>0</v>
+      </c>
+      <c r="G72" s="22">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="H72" s="19">
-        <v>0</v>
-      </c>
-      <c r="I72" s="19">
-        <v>0</v>
-      </c>
-      <c r="J72" s="20">
+      <c r="H72" s="21">
+        <v>0</v>
+      </c>
+      <c r="I72" s="21">
+        <v>0</v>
+      </c>
+      <c r="J72" s="22">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="K72" s="19">
-        <v>0</v>
-      </c>
-      <c r="L72" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" ht="30" customHeight="1">
-      <c r="A73" s="27"/>
-      <c r="B73" s="28"/>
-      <c r="C73" s="19">
-        <v>0</v>
-      </c>
-      <c r="D73" s="19">
-        <v>0</v>
-      </c>
-      <c r="E73" s="20">
+      <c r="K72" s="21">
+        <v>0</v>
+      </c>
+      <c r="L72" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" s="23" customFormat="1" ht="30" customHeight="1">
+      <c r="A73" s="30"/>
+      <c r="B73" s="31"/>
+      <c r="C73" s="21">
+        <v>0</v>
+      </c>
+      <c r="D73" s="21">
+        <v>0</v>
+      </c>
+      <c r="E73" s="22">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="F73" s="19">
-        <v>0</v>
-      </c>
-      <c r="G73" s="20">
+      <c r="F73" s="21">
+        <v>0</v>
+      </c>
+      <c r="G73" s="22">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="H73" s="19">
-        <v>0</v>
-      </c>
-      <c r="I73" s="19">
-        <v>0</v>
-      </c>
-      <c r="J73" s="20">
+      <c r="H73" s="21">
+        <v>0</v>
+      </c>
+      <c r="I73" s="21">
+        <v>0</v>
+      </c>
+      <c r="J73" s="22">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="K73" s="19">
-        <v>0</v>
-      </c>
-      <c r="L73" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" ht="30" customHeight="1">
-      <c r="A74" s="27"/>
-      <c r="B74" s="28"/>
-      <c r="C74" s="19">
-        <v>0</v>
-      </c>
-      <c r="D74" s="19">
-        <v>0</v>
-      </c>
-      <c r="E74" s="20">
+      <c r="K73" s="21">
+        <v>0</v>
+      </c>
+      <c r="L73" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" s="23" customFormat="1" ht="30" customHeight="1">
+      <c r="A74" s="30"/>
+      <c r="B74" s="31"/>
+      <c r="C74" s="21">
+        <v>0</v>
+      </c>
+      <c r="D74" s="21">
+        <v>0</v>
+      </c>
+      <c r="E74" s="22">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="F74" s="19">
-        <v>0</v>
-      </c>
-      <c r="G74" s="20">
+      <c r="F74" s="21">
+        <v>0</v>
+      </c>
+      <c r="G74" s="22">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="H74" s="19">
-        <v>0</v>
-      </c>
-      <c r="I74" s="19">
-        <v>0</v>
-      </c>
-      <c r="J74" s="20">
+      <c r="H74" s="21">
+        <v>0</v>
+      </c>
+      <c r="I74" s="21">
+        <v>0</v>
+      </c>
+      <c r="J74" s="22">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="K74" s="19">
-        <v>0</v>
-      </c>
-      <c r="L74" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" ht="30" customHeight="1">
-      <c r="A75" s="27"/>
-      <c r="B75" s="28"/>
-      <c r="C75" s="19">
-        <v>0</v>
-      </c>
-      <c r="D75" s="19">
-        <v>0</v>
-      </c>
-      <c r="E75" s="20">
+      <c r="K74" s="21">
+        <v>0</v>
+      </c>
+      <c r="L74" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" s="23" customFormat="1" ht="30" customHeight="1">
+      <c r="A75" s="30"/>
+      <c r="B75" s="31"/>
+      <c r="C75" s="21">
+        <v>0</v>
+      </c>
+      <c r="D75" s="21">
+        <v>0</v>
+      </c>
+      <c r="E75" s="22">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="F75" s="19">
-        <v>0</v>
-      </c>
-      <c r="G75" s="20">
+      <c r="F75" s="21">
+        <v>0</v>
+      </c>
+      <c r="G75" s="22">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="H75" s="19">
-        <v>0</v>
-      </c>
-      <c r="I75" s="19">
-        <v>0</v>
-      </c>
-      <c r="J75" s="20">
+      <c r="H75" s="21">
+        <v>0</v>
+      </c>
+      <c r="I75" s="21">
+        <v>0</v>
+      </c>
+      <c r="J75" s="22">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="K75" s="19">
-        <v>0</v>
-      </c>
-      <c r="L75" s="19">
+      <c r="K75" s="21">
+        <v>0</v>
+      </c>
+      <c r="L75" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="30" customHeight="1">
-      <c r="A76" s="25"/>
-      <c r="B76" s="26"/>
+      <c r="A76" s="28"/>
+      <c r="B76" s="29"/>
       <c r="C76" s="19">
         <v>0</v>
       </c>
@@ -3515,8 +3521,8 @@
       </c>
     </row>
     <row r="77" spans="1:12" ht="30" customHeight="1">
-      <c r="A77" s="25"/>
-      <c r="B77" s="26"/>
+      <c r="A77" s="28"/>
+      <c r="B77" s="29"/>
       <c r="C77" s="19">
         <v>0</v>
       </c>
@@ -3552,8 +3558,8 @@
       </c>
     </row>
     <row r="78" spans="1:12" ht="30" customHeight="1">
-      <c r="A78" s="25"/>
-      <c r="B78" s="26"/>
+      <c r="A78" s="28"/>
+      <c r="B78" s="29"/>
       <c r="C78" s="19">
         <v>0</v>
       </c>
@@ -3589,8 +3595,8 @@
       </c>
     </row>
     <row r="79" spans="1:12" ht="30" customHeight="1">
-      <c r="A79" s="25"/>
-      <c r="B79" s="26"/>
+      <c r="A79" s="28"/>
+      <c r="B79" s="29"/>
       <c r="C79" s="19">
         <v>0</v>
       </c>
@@ -3626,8 +3632,8 @@
       </c>
     </row>
     <row r="80" spans="1:12" ht="30" customHeight="1">
-      <c r="A80" s="25"/>
-      <c r="B80" s="26"/>
+      <c r="A80" s="28"/>
+      <c r="B80" s="29"/>
       <c r="C80" s="19">
         <v>0</v>
       </c>
@@ -3662,46 +3668,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="30" customHeight="1">
-      <c r="A81" s="27"/>
-      <c r="B81" s="28"/>
-      <c r="C81" s="19">
-        <v>0</v>
-      </c>
-      <c r="D81" s="19">
-        <v>0</v>
-      </c>
-      <c r="E81" s="20">
+    <row r="81" spans="1:12" s="23" customFormat="1" ht="30" customHeight="1">
+      <c r="A81" s="30"/>
+      <c r="B81" s="31"/>
+      <c r="C81" s="21">
+        <v>0</v>
+      </c>
+      <c r="D81" s="21">
+        <v>0</v>
+      </c>
+      <c r="E81" s="22">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="F81" s="19">
-        <v>0</v>
-      </c>
-      <c r="G81" s="20">
+      <c r="F81" s="21">
+        <v>0</v>
+      </c>
+      <c r="G81" s="22">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="H81" s="19">
-        <v>0</v>
-      </c>
-      <c r="I81" s="19">
-        <v>0</v>
-      </c>
-      <c r="J81" s="20">
+      <c r="H81" s="21">
+        <v>0</v>
+      </c>
+      <c r="I81" s="21">
+        <v>0</v>
+      </c>
+      <c r="J81" s="22">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="K81" s="19">
-        <v>0</v>
-      </c>
-      <c r="L81" s="19">
+      <c r="K81" s="21">
+        <v>0</v>
+      </c>
+      <c r="L81" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="30" customHeight="1">
-      <c r="A82" s="25"/>
-      <c r="B82" s="26"/>
+      <c r="A82" s="28"/>
+      <c r="B82" s="29"/>
       <c r="C82" s="19">
         <v>0</v>
       </c>
@@ -3737,8 +3743,8 @@
       </c>
     </row>
     <row r="83" spans="1:12" ht="30" customHeight="1">
-      <c r="A83" s="25"/>
-      <c r="B83" s="26"/>
+      <c r="A83" s="28"/>
+      <c r="B83" s="29"/>
       <c r="C83" s="19">
         <v>0</v>
       </c>
@@ -3774,8 +3780,8 @@
       </c>
     </row>
     <row r="84" spans="1:12" ht="30" customHeight="1">
-      <c r="A84" s="25"/>
-      <c r="B84" s="26"/>
+      <c r="A84" s="28"/>
+      <c r="B84" s="29"/>
       <c r="C84" s="19">
         <v>0</v>
       </c>
@@ -3811,8 +3817,8 @@
       </c>
     </row>
     <row r="85" spans="1:12" ht="30" customHeight="1">
-      <c r="A85" s="25"/>
-      <c r="B85" s="26"/>
+      <c r="A85" s="28"/>
+      <c r="B85" s="29"/>
       <c r="C85" s="19">
         <v>0</v>
       </c>
@@ -3848,8 +3854,8 @@
       </c>
     </row>
     <row r="86" spans="1:12" ht="30" customHeight="1">
-      <c r="A86" s="25"/>
-      <c r="B86" s="26"/>
+      <c r="A86" s="28"/>
+      <c r="B86" s="29"/>
       <c r="C86" s="19">
         <v>0</v>
       </c>
@@ -3885,8 +3891,8 @@
       </c>
     </row>
     <row r="87" spans="1:12" ht="30" customHeight="1">
-      <c r="A87" s="25"/>
-      <c r="B87" s="26"/>
+      <c r="A87" s="28"/>
+      <c r="B87" s="29"/>
       <c r="C87" s="19">
         <v>0</v>
       </c>
@@ -3921,157 +3927,157 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="30" customHeight="1">
-      <c r="A88" s="27"/>
-      <c r="B88" s="28"/>
-      <c r="C88" s="19">
-        <v>0</v>
-      </c>
-      <c r="D88" s="19">
-        <v>0</v>
-      </c>
-      <c r="E88" s="20">
+    <row r="88" spans="1:12" s="23" customFormat="1" ht="30" customHeight="1">
+      <c r="A88" s="30"/>
+      <c r="B88" s="31"/>
+      <c r="C88" s="21">
+        <v>0</v>
+      </c>
+      <c r="D88" s="21">
+        <v>0</v>
+      </c>
+      <c r="E88" s="22">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="F88" s="19">
-        <v>0</v>
-      </c>
-      <c r="G88" s="20">
+      <c r="F88" s="21">
+        <v>0</v>
+      </c>
+      <c r="G88" s="22">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="H88" s="19">
-        <v>0</v>
-      </c>
-      <c r="I88" s="19">
-        <v>0</v>
-      </c>
-      <c r="J88" s="20">
+      <c r="H88" s="21">
+        <v>0</v>
+      </c>
+      <c r="I88" s="21">
+        <v>0</v>
+      </c>
+      <c r="J88" s="22">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="K88" s="19">
-        <v>0</v>
-      </c>
-      <c r="L88" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" ht="30" customHeight="1">
-      <c r="A89" s="27"/>
-      <c r="B89" s="28"/>
-      <c r="C89" s="19">
-        <v>0</v>
-      </c>
-      <c r="D89" s="19">
-        <v>0</v>
-      </c>
-      <c r="E89" s="20">
+      <c r="K88" s="21">
+        <v>0</v>
+      </c>
+      <c r="L88" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" s="23" customFormat="1" ht="30" customHeight="1">
+      <c r="A89" s="30"/>
+      <c r="B89" s="31"/>
+      <c r="C89" s="21">
+        <v>0</v>
+      </c>
+      <c r="D89" s="21">
+        <v>0</v>
+      </c>
+      <c r="E89" s="22">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="F89" s="19">
-        <v>0</v>
-      </c>
-      <c r="G89" s="20">
+      <c r="F89" s="21">
+        <v>0</v>
+      </c>
+      <c r="G89" s="22">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="H89" s="19">
-        <v>0</v>
-      </c>
-      <c r="I89" s="19">
-        <v>0</v>
-      </c>
-      <c r="J89" s="20">
+      <c r="H89" s="21">
+        <v>0</v>
+      </c>
+      <c r="I89" s="21">
+        <v>0</v>
+      </c>
+      <c r="J89" s="22">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="K89" s="19">
-        <v>0</v>
-      </c>
-      <c r="L89" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" ht="30" customHeight="1">
-      <c r="A90" s="27"/>
-      <c r="B90" s="28"/>
-      <c r="C90" s="19">
-        <v>0</v>
-      </c>
-      <c r="D90" s="19">
-        <v>0</v>
-      </c>
-      <c r="E90" s="20">
+      <c r="K89" s="21">
+        <v>0</v>
+      </c>
+      <c r="L89" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" s="23" customFormat="1" ht="30" customHeight="1">
+      <c r="A90" s="30"/>
+      <c r="B90" s="31"/>
+      <c r="C90" s="21">
+        <v>0</v>
+      </c>
+      <c r="D90" s="21">
+        <v>0</v>
+      </c>
+      <c r="E90" s="22">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="F90" s="19">
-        <v>0</v>
-      </c>
-      <c r="G90" s="20">
+      <c r="F90" s="21">
+        <v>0</v>
+      </c>
+      <c r="G90" s="22">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="H90" s="19">
-        <v>0</v>
-      </c>
-      <c r="I90" s="19">
-        <v>0</v>
-      </c>
-      <c r="J90" s="20">
+      <c r="H90" s="21">
+        <v>0</v>
+      </c>
+      <c r="I90" s="21">
+        <v>0</v>
+      </c>
+      <c r="J90" s="22">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="K90" s="19">
-        <v>0</v>
-      </c>
-      <c r="L90" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" ht="30" customHeight="1">
-      <c r="A91" s="27"/>
-      <c r="B91" s="28"/>
-      <c r="C91" s="19">
-        <v>0</v>
-      </c>
-      <c r="D91" s="19">
-        <v>0</v>
-      </c>
-      <c r="E91" s="20">
+      <c r="K90" s="21">
+        <v>0</v>
+      </c>
+      <c r="L90" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" s="23" customFormat="1" ht="30" customHeight="1">
+      <c r="A91" s="30"/>
+      <c r="B91" s="31"/>
+      <c r="C91" s="21">
+        <v>0</v>
+      </c>
+      <c r="D91" s="21">
+        <v>0</v>
+      </c>
+      <c r="E91" s="22">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="F91" s="19">
-        <v>0</v>
-      </c>
-      <c r="G91" s="20">
+      <c r="F91" s="21">
+        <v>0</v>
+      </c>
+      <c r="G91" s="22">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="H91" s="19">
-        <v>0</v>
-      </c>
-      <c r="I91" s="19">
-        <v>0</v>
-      </c>
-      <c r="J91" s="20">
+      <c r="H91" s="21">
+        <v>0</v>
+      </c>
+      <c r="I91" s="21">
+        <v>0</v>
+      </c>
+      <c r="J91" s="22">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="K91" s="19">
-        <v>0</v>
-      </c>
-      <c r="L91" s="19">
+      <c r="K91" s="21">
+        <v>0</v>
+      </c>
+      <c r="L91" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="30" customHeight="1">
-      <c r="A92" s="25"/>
-      <c r="B92" s="26"/>
+      <c r="A92" s="28"/>
+      <c r="B92" s="29"/>
       <c r="C92" s="19">
         <v>0</v>
       </c>
@@ -4107,8 +4113,8 @@
       </c>
     </row>
     <row r="93" spans="1:12" ht="30" customHeight="1">
-      <c r="A93" s="25"/>
-      <c r="B93" s="26"/>
+      <c r="A93" s="28"/>
+      <c r="B93" s="29"/>
       <c r="C93" s="19">
         <v>0</v>
       </c>
@@ -4144,8 +4150,8 @@
       </c>
     </row>
     <row r="94" spans="1:12" ht="30" customHeight="1">
-      <c r="A94" s="25"/>
-      <c r="B94" s="26"/>
+      <c r="A94" s="28"/>
+      <c r="B94" s="29"/>
       <c r="C94" s="19">
         <v>0</v>
       </c>
@@ -4181,8 +4187,8 @@
       </c>
     </row>
     <row r="95" spans="1:12" ht="30" customHeight="1">
-      <c r="A95" s="25"/>
-      <c r="B95" s="26"/>
+      <c r="A95" s="28"/>
+      <c r="B95" s="29"/>
       <c r="C95" s="19">
         <v>0</v>
       </c>
@@ -4218,8 +4224,8 @@
       </c>
     </row>
     <row r="96" spans="1:12" ht="30" customHeight="1">
-      <c r="A96" s="25"/>
-      <c r="B96" s="26"/>
+      <c r="A96" s="28"/>
+      <c r="B96" s="29"/>
       <c r="C96" s="19">
         <v>0</v>
       </c>
@@ -4254,120 +4260,120 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="30" customHeight="1">
-      <c r="A97" s="27"/>
-      <c r="B97" s="28"/>
-      <c r="C97" s="19">
-        <v>0</v>
-      </c>
-      <c r="D97" s="19">
-        <v>0</v>
-      </c>
-      <c r="E97" s="20">
+    <row r="97" spans="1:12" s="23" customFormat="1" ht="30" customHeight="1">
+      <c r="A97" s="30"/>
+      <c r="B97" s="31"/>
+      <c r="C97" s="21">
+        <v>0</v>
+      </c>
+      <c r="D97" s="21">
+        <v>0</v>
+      </c>
+      <c r="E97" s="22">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="F97" s="19">
-        <v>0</v>
-      </c>
-      <c r="G97" s="20">
+      <c r="F97" s="21">
+        <v>0</v>
+      </c>
+      <c r="G97" s="22">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="H97" s="19">
-        <v>0</v>
-      </c>
-      <c r="I97" s="19">
-        <v>0</v>
-      </c>
-      <c r="J97" s="20">
+      <c r="H97" s="21">
+        <v>0</v>
+      </c>
+      <c r="I97" s="21">
+        <v>0</v>
+      </c>
+      <c r="J97" s="22">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="K97" s="19">
-        <v>0</v>
-      </c>
-      <c r="L97" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" ht="30" customHeight="1">
-      <c r="A98" s="27"/>
-      <c r="B98" s="28"/>
-      <c r="C98" s="19">
-        <v>0</v>
-      </c>
-      <c r="D98" s="19">
-        <v>0</v>
-      </c>
-      <c r="E98" s="20">
+      <c r="K97" s="21">
+        <v>0</v>
+      </c>
+      <c r="L97" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" s="23" customFormat="1" ht="30" customHeight="1">
+      <c r="A98" s="30"/>
+      <c r="B98" s="31"/>
+      <c r="C98" s="21">
+        <v>0</v>
+      </c>
+      <c r="D98" s="21">
+        <v>0</v>
+      </c>
+      <c r="E98" s="22">
         <f>IF(D98=0,0,(C98-D98)/D98)</f>
         <v>0</v>
       </c>
-      <c r="F98" s="19">
-        <v>0</v>
-      </c>
-      <c r="G98" s="20">
+      <c r="F98" s="21">
+        <v>0</v>
+      </c>
+      <c r="G98" s="22">
         <f>IF(F98=0,0,(C98-F98)/F98)</f>
         <v>0</v>
       </c>
-      <c r="H98" s="19">
-        <v>0</v>
-      </c>
-      <c r="I98" s="19">
-        <v>0</v>
-      </c>
-      <c r="J98" s="20">
+      <c r="H98" s="21">
+        <v>0</v>
+      </c>
+      <c r="I98" s="21">
+        <v>0</v>
+      </c>
+      <c r="J98" s="22">
         <f>IF(I98=0,0,(H98-I98)/I98)</f>
         <v>0</v>
       </c>
-      <c r="K98" s="19">
-        <v>0</v>
-      </c>
-      <c r="L98" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" ht="30" customHeight="1">
-      <c r="A99" s="27"/>
-      <c r="B99" s="28"/>
-      <c r="C99" s="19">
-        <v>0</v>
-      </c>
-      <c r="D99" s="19">
-        <v>0</v>
-      </c>
-      <c r="E99" s="20">
+      <c r="K98" s="21">
+        <v>0</v>
+      </c>
+      <c r="L98" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" s="23" customFormat="1" ht="30" customHeight="1">
+      <c r="A99" s="30"/>
+      <c r="B99" s="31"/>
+      <c r="C99" s="21">
+        <v>0</v>
+      </c>
+      <c r="D99" s="21">
+        <v>0</v>
+      </c>
+      <c r="E99" s="22">
         <f t="shared" ref="E99:E105" si="27">IF(D99=0,0,(C99-D99)/D99)</f>
         <v>0</v>
       </c>
-      <c r="F99" s="19">
-        <v>0</v>
-      </c>
-      <c r="G99" s="20">
+      <c r="F99" s="21">
+        <v>0</v>
+      </c>
+      <c r="G99" s="22">
         <f t="shared" ref="G99:G105" si="28">IF(F99=0,0,(C99-F99)/F99)</f>
         <v>0</v>
       </c>
-      <c r="H99" s="19">
-        <v>0</v>
-      </c>
-      <c r="I99" s="19">
-        <v>0</v>
-      </c>
-      <c r="J99" s="20">
+      <c r="H99" s="21">
+        <v>0</v>
+      </c>
+      <c r="I99" s="21">
+        <v>0</v>
+      </c>
+      <c r="J99" s="22">
         <f t="shared" ref="J99:J105" si="29">IF(I99=0,0,(H99-I99)/I99)</f>
         <v>0</v>
       </c>
-      <c r="K99" s="19">
-        <v>0</v>
-      </c>
-      <c r="L99" s="19">
+      <c r="K99" s="21">
+        <v>0</v>
+      </c>
+      <c r="L99" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:12" ht="30" customHeight="1">
-      <c r="A100" s="25"/>
-      <c r="B100" s="26"/>
+      <c r="A100" s="28"/>
+      <c r="B100" s="29"/>
       <c r="C100" s="19">
         <v>0</v>
       </c>
@@ -4403,8 +4409,8 @@
       </c>
     </row>
     <row r="101" spans="1:12" ht="30" customHeight="1">
-      <c r="A101" s="25"/>
-      <c r="B101" s="26"/>
+      <c r="A101" s="28"/>
+      <c r="B101" s="29"/>
       <c r="C101" s="19">
         <v>0</v>
       </c>
@@ -4440,8 +4446,8 @@
       </c>
     </row>
     <row r="102" spans="1:12" ht="30" customHeight="1">
-      <c r="A102" s="25"/>
-      <c r="B102" s="26"/>
+      <c r="A102" s="28"/>
+      <c r="B102" s="29"/>
       <c r="C102" s="19">
         <v>0</v>
       </c>
@@ -4477,8 +4483,8 @@
       </c>
     </row>
     <row r="103" spans="1:12" ht="30" customHeight="1">
-      <c r="A103" s="25"/>
-      <c r="B103" s="26"/>
+      <c r="A103" s="28"/>
+      <c r="B103" s="29"/>
       <c r="C103" s="19">
         <v>0</v>
       </c>
@@ -4514,8 +4520,8 @@
       </c>
     </row>
     <row r="104" spans="1:12" ht="30" customHeight="1">
-      <c r="A104" s="25"/>
-      <c r="B104" s="26"/>
+      <c r="A104" s="28"/>
+      <c r="B104" s="29"/>
       <c r="C104" s="19">
         <v>0</v>
       </c>
@@ -4551,8 +4557,8 @@
       </c>
     </row>
     <row r="105" spans="1:12" ht="30" customHeight="1">
-      <c r="A105" s="25"/>
-      <c r="B105" s="26"/>
+      <c r="A105" s="28"/>
+      <c r="B105" s="29"/>
       <c r="C105" s="19">
         <v>0</v>
       </c>
@@ -4588,7 +4594,7 @@
       </c>
     </row>
     <row r="106" spans="1:12" ht="30" customHeight="1">
-      <c r="A106" s="22"/>
+      <c r="A106" s="25"/>
       <c r="B106" s="14" t="s">
         <v>12</v>
       </c>

--- a/PhoenixCI/Excel_Template/60110.xlsx
+++ b/PhoenixCI/Excel_Template/60110.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Source\Repos\buckblader\RekindlePhoenixCI\PhoenixCI\Excel_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DF07FDB-E6A5-4B57-A9A5-E74D35B2F1D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDD5BD1D-E88A-4455-877A-BE28DBFBBC0C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="14895" windowHeight="8505"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="60110" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -312,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -372,13 +373,6 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -393,14 +387,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -758,47 +752,47 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="27" customWidth="1"/>
-    <col min="2" max="2" width="18.75" style="32" customWidth="1"/>
+    <col min="1" max="1" width="9" style="24" customWidth="1"/>
+    <col min="2" max="2" width="18.75" style="29" customWidth="1"/>
     <col min="3" max="11" width="11.625" style="3" customWidth="1"/>
     <col min="12" max="12" width="11.5" style="3" customWidth="1"/>
     <col min="13" max="16384" width="8.875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="16" customFormat="1" ht="21" customHeight="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
     </row>
     <row r="2" spans="1:12" s="16" customFormat="1" ht="24" customHeight="1">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
     </row>
     <row r="3" spans="1:12" ht="33">
-      <c r="A3" s="25"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -834,7 +828,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" s="7" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A4" s="26"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="4" t="s">
         <v>23</v>
       </c>
@@ -873,7 +867,7 @@
       <c r="A5" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C5" s="9"/>
@@ -894,8 +888,8 @@
       <c r="L5" s="17"/>
     </row>
     <row r="6" spans="1:12" ht="30" customHeight="1">
-      <c r="A6" s="28"/>
-      <c r="B6" s="29"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="19">
         <v>0</v>
       </c>
@@ -931,8 +925,8 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="30" customHeight="1">
-      <c r="A7" s="28"/>
-      <c r="B7" s="29"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="19">
         <v>0</v>
       </c>
@@ -968,8 +962,8 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="30" customHeight="1">
-      <c r="A8" s="28"/>
-      <c r="B8" s="29"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="19">
         <v>0</v>
       </c>
@@ -1005,8 +999,8 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="30" customHeight="1">
-      <c r="A9" s="28"/>
-      <c r="B9" s="29"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="19">
         <v>0</v>
       </c>
@@ -1042,8 +1036,8 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="30" customHeight="1">
-      <c r="A10" s="28"/>
-      <c r="B10" s="29"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="19">
         <v>0</v>
       </c>
@@ -1079,8 +1073,8 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="30" customHeight="1">
-      <c r="A11" s="28"/>
-      <c r="B11" s="29"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="19">
         <v>0</v>
       </c>
@@ -1116,8 +1110,8 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="30" customHeight="1">
-      <c r="A12" s="28"/>
-      <c r="B12" s="29"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="19">
         <v>0</v>
       </c>
@@ -1153,8 +1147,8 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="30" customHeight="1">
-      <c r="A13" s="28"/>
-      <c r="B13" s="29"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="19">
         <v>0</v>
       </c>
@@ -1189,157 +1183,157 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="23" customFormat="1" ht="30" customHeight="1">
-      <c r="A14" s="28"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="21">
-        <v>0</v>
-      </c>
-      <c r="D14" s="21">
-        <v>0</v>
-      </c>
-      <c r="E14" s="22">
+    <row r="14" spans="1:12" ht="30" customHeight="1">
+      <c r="A14" s="25"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="19">
+        <v>0</v>
+      </c>
+      <c r="D14" s="19">
+        <v>0</v>
+      </c>
+      <c r="E14" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F14" s="21">
-        <v>0</v>
-      </c>
-      <c r="G14" s="22">
+      <c r="F14" s="19">
+        <v>0</v>
+      </c>
+      <c r="G14" s="20">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H14" s="21">
-        <v>0</v>
-      </c>
-      <c r="I14" s="21">
-        <v>0</v>
-      </c>
-      <c r="J14" s="22">
+      <c r="H14" s="19">
+        <v>0</v>
+      </c>
+      <c r="I14" s="19">
+        <v>0</v>
+      </c>
+      <c r="J14" s="20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K14" s="21">
-        <v>0</v>
-      </c>
-      <c r="L14" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="23" customFormat="1" ht="30" customHeight="1">
-      <c r="A15" s="30"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="21">
-        <v>0</v>
-      </c>
-      <c r="D15" s="21">
-        <v>0</v>
-      </c>
-      <c r="E15" s="22">
+      <c r="K14" s="19">
+        <v>0</v>
+      </c>
+      <c r="L14" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="30" customHeight="1">
+      <c r="A15" s="27"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="19">
+        <v>0</v>
+      </c>
+      <c r="D15" s="19">
+        <v>0</v>
+      </c>
+      <c r="E15" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F15" s="21">
-        <v>0</v>
-      </c>
-      <c r="G15" s="22">
+      <c r="F15" s="19">
+        <v>0</v>
+      </c>
+      <c r="G15" s="20">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H15" s="21">
-        <v>0</v>
-      </c>
-      <c r="I15" s="21">
-        <v>0</v>
-      </c>
-      <c r="J15" s="22">
+      <c r="H15" s="19">
+        <v>0</v>
+      </c>
+      <c r="I15" s="19">
+        <v>0</v>
+      </c>
+      <c r="J15" s="20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K15" s="21">
-        <v>0</v>
-      </c>
-      <c r="L15" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="23" customFormat="1" ht="30" customHeight="1">
-      <c r="A16" s="30"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="21">
-        <v>0</v>
-      </c>
-      <c r="D16" s="21">
-        <v>0</v>
-      </c>
-      <c r="E16" s="22">
+      <c r="K15" s="19">
+        <v>0</v>
+      </c>
+      <c r="L15" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="30" customHeight="1">
+      <c r="A16" s="27"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="19">
+        <v>0</v>
+      </c>
+      <c r="D16" s="19">
+        <v>0</v>
+      </c>
+      <c r="E16" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F16" s="21">
-        <v>0</v>
-      </c>
-      <c r="G16" s="22">
+      <c r="F16" s="19">
+        <v>0</v>
+      </c>
+      <c r="G16" s="20">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H16" s="21">
-        <v>0</v>
-      </c>
-      <c r="I16" s="21">
-        <v>0</v>
-      </c>
-      <c r="J16" s="22">
+      <c r="H16" s="19">
+        <v>0</v>
+      </c>
+      <c r="I16" s="19">
+        <v>0</v>
+      </c>
+      <c r="J16" s="20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K16" s="21">
-        <v>0</v>
-      </c>
-      <c r="L16" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" s="23" customFormat="1" ht="30" customHeight="1">
-      <c r="A17" s="30"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="21">
-        <v>0</v>
-      </c>
-      <c r="D17" s="21">
-        <v>0</v>
-      </c>
-      <c r="E17" s="22">
+      <c r="K16" s="19">
+        <v>0</v>
+      </c>
+      <c r="L16" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="30" customHeight="1">
+      <c r="A17" s="27"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="19">
+        <v>0</v>
+      </c>
+      <c r="D17" s="19">
+        <v>0</v>
+      </c>
+      <c r="E17" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F17" s="21">
-        <v>0</v>
-      </c>
-      <c r="G17" s="22">
+      <c r="F17" s="19">
+        <v>0</v>
+      </c>
+      <c r="G17" s="20">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H17" s="21">
-        <v>0</v>
-      </c>
-      <c r="I17" s="21">
-        <v>0</v>
-      </c>
-      <c r="J17" s="22">
+      <c r="H17" s="19">
+        <v>0</v>
+      </c>
+      <c r="I17" s="19">
+        <v>0</v>
+      </c>
+      <c r="J17" s="20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K17" s="21">
-        <v>0</v>
-      </c>
-      <c r="L17" s="21">
+      <c r="K17" s="19">
+        <v>0</v>
+      </c>
+      <c r="L17" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
-      <c r="A18" s="30"/>
-      <c r="B18" s="31"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="28"/>
       <c r="C18" s="19">
         <v>0</v>
       </c>
@@ -1375,8 +1369,8 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="30" customHeight="1">
-      <c r="A19" s="28"/>
-      <c r="B19" s="29"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="26"/>
       <c r="C19" s="19">
         <v>0</v>
       </c>
@@ -1412,8 +1406,8 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="30" customHeight="1">
-      <c r="A20" s="28"/>
-      <c r="B20" s="29"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="26"/>
       <c r="C20" s="19">
         <v>0</v>
       </c>
@@ -1449,8 +1443,8 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="30" customHeight="1">
-      <c r="A21" s="28"/>
-      <c r="B21" s="29"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="26"/>
       <c r="C21" s="19">
         <v>0</v>
       </c>
@@ -1486,8 +1480,8 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="30" customHeight="1">
-      <c r="A22" s="28"/>
-      <c r="B22" s="29"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="26"/>
       <c r="C22" s="19">
         <v>0</v>
       </c>
@@ -1522,120 +1516,120 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="23" customFormat="1" ht="30" customHeight="1">
-      <c r="A23" s="28"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="21">
-        <v>0</v>
-      </c>
-      <c r="D23" s="21">
-        <v>0</v>
-      </c>
-      <c r="E23" s="22">
+    <row r="23" spans="1:12" ht="30" customHeight="1">
+      <c r="A23" s="25"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="19">
+        <v>0</v>
+      </c>
+      <c r="D23" s="19">
+        <v>0</v>
+      </c>
+      <c r="E23" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F23" s="21">
-        <v>0</v>
-      </c>
-      <c r="G23" s="22">
+      <c r="F23" s="19">
+        <v>0</v>
+      </c>
+      <c r="G23" s="20">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H23" s="21">
-        <v>0</v>
-      </c>
-      <c r="I23" s="21">
-        <v>0</v>
-      </c>
-      <c r="J23" s="22">
+      <c r="H23" s="19">
+        <v>0</v>
+      </c>
+      <c r="I23" s="19">
+        <v>0</v>
+      </c>
+      <c r="J23" s="20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K23" s="21">
-        <v>0</v>
-      </c>
-      <c r="L23" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" s="23" customFormat="1" ht="30" customHeight="1">
-      <c r="A24" s="30"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="21">
-        <v>0</v>
-      </c>
-      <c r="D24" s="21">
-        <v>0</v>
-      </c>
-      <c r="E24" s="22">
+      <c r="K23" s="19">
+        <v>0</v>
+      </c>
+      <c r="L23" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="30" customHeight="1">
+      <c r="A24" s="27"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="19">
+        <v>0</v>
+      </c>
+      <c r="D24" s="19">
+        <v>0</v>
+      </c>
+      <c r="E24" s="20">
         <f>IF(D24=0,0,(C24-D24)/D24)</f>
         <v>0</v>
       </c>
-      <c r="F24" s="21">
-        <v>0</v>
-      </c>
-      <c r="G24" s="22">
+      <c r="F24" s="19">
+        <v>0</v>
+      </c>
+      <c r="G24" s="20">
         <f>IF(F24=0,0,(C24-F24)/F24)</f>
         <v>0</v>
       </c>
-      <c r="H24" s="21">
-        <v>0</v>
-      </c>
-      <c r="I24" s="21">
-        <v>0</v>
-      </c>
-      <c r="J24" s="22">
+      <c r="H24" s="19">
+        <v>0</v>
+      </c>
+      <c r="I24" s="19">
+        <v>0</v>
+      </c>
+      <c r="J24" s="20">
         <f>IF(I24=0,0,(H24-I24)/I24)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="21">
-        <v>0</v>
-      </c>
-      <c r="L24" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" s="23" customFormat="1" ht="30" customHeight="1">
-      <c r="A25" s="30"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="21">
-        <v>0</v>
-      </c>
-      <c r="D25" s="21">
-        <v>0</v>
-      </c>
-      <c r="E25" s="22">
+      <c r="K24" s="19">
+        <v>0</v>
+      </c>
+      <c r="L24" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="30" customHeight="1">
+      <c r="A25" s="27"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="19">
+        <v>0</v>
+      </c>
+      <c r="D25" s="19">
+        <v>0</v>
+      </c>
+      <c r="E25" s="20">
         <f t="shared" ref="E25:E30" si="6">IF(D25=0,0,(C25-D25)/D25)</f>
         <v>0</v>
       </c>
-      <c r="F25" s="21">
-        <v>0</v>
-      </c>
-      <c r="G25" s="22">
+      <c r="F25" s="19">
+        <v>0</v>
+      </c>
+      <c r="G25" s="20">
         <f t="shared" ref="G25:G30" si="7">IF(F25=0,0,(C25-F25)/F25)</f>
         <v>0</v>
       </c>
-      <c r="H25" s="21">
-        <v>0</v>
-      </c>
-      <c r="I25" s="21">
-        <v>0</v>
-      </c>
-      <c r="J25" s="22">
+      <c r="H25" s="19">
+        <v>0</v>
+      </c>
+      <c r="I25" s="19">
+        <v>0</v>
+      </c>
+      <c r="J25" s="20">
         <f t="shared" ref="J25:J30" si="8">IF(I25=0,0,(H25-I25)/I25)</f>
         <v>0</v>
       </c>
-      <c r="K25" s="21">
-        <v>0</v>
-      </c>
-      <c r="L25" s="21">
+      <c r="K25" s="19">
+        <v>0</v>
+      </c>
+      <c r="L25" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="30" customHeight="1">
-      <c r="A26" s="30"/>
-      <c r="B26" s="31"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="28"/>
       <c r="C26" s="19">
         <v>0</v>
       </c>
@@ -1671,8 +1665,8 @@
       </c>
     </row>
     <row r="27" spans="1:12" ht="30" customHeight="1">
-      <c r="A27" s="28"/>
-      <c r="B27" s="29"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="26"/>
       <c r="C27" s="19">
         <v>0</v>
       </c>
@@ -1708,8 +1702,8 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="30" customHeight="1">
-      <c r="A28" s="28"/>
-      <c r="B28" s="29"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="26"/>
       <c r="C28" s="19">
         <v>0</v>
       </c>
@@ -1745,8 +1739,8 @@
       </c>
     </row>
     <row r="29" spans="1:12" ht="30" customHeight="1">
-      <c r="A29" s="28"/>
-      <c r="B29" s="29"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="26"/>
       <c r="C29" s="19">
         <v>0</v>
       </c>
@@ -1782,8 +1776,8 @@
       </c>
     </row>
     <row r="30" spans="1:12" ht="30" customHeight="1">
-      <c r="A30" s="28"/>
-      <c r="B30" s="29"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="26"/>
       <c r="C30" s="19">
         <v>0</v>
       </c>
@@ -1819,8 +1813,8 @@
       </c>
     </row>
     <row r="31" spans="1:12" ht="30" customHeight="1">
-      <c r="A31" s="28"/>
-      <c r="B31" s="29"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="26"/>
       <c r="C31" s="19">
         <v>0</v>
       </c>
@@ -1856,8 +1850,8 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="30" customHeight="1">
-      <c r="A32" s="28"/>
-      <c r="B32" s="29"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="26"/>
       <c r="C32" s="19">
         <v>0</v>
       </c>
@@ -1893,8 +1887,8 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="30" customHeight="1">
-      <c r="A33" s="28"/>
-      <c r="B33" s="29"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="26"/>
       <c r="C33" s="19">
         <v>0</v>
       </c>
@@ -1929,157 +1923,157 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12" s="23" customFormat="1" ht="30" customHeight="1">
-      <c r="A34" s="30"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="21">
-        <v>0</v>
-      </c>
-      <c r="D34" s="21">
-        <v>0</v>
-      </c>
-      <c r="E34" s="22">
+    <row r="34" spans="1:12" ht="30" customHeight="1">
+      <c r="A34" s="27"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="19">
+        <v>0</v>
+      </c>
+      <c r="D34" s="19">
+        <v>0</v>
+      </c>
+      <c r="E34" s="20">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F34" s="21">
-        <v>0</v>
-      </c>
-      <c r="G34" s="22">
+      <c r="F34" s="19">
+        <v>0</v>
+      </c>
+      <c r="G34" s="20">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H34" s="21">
-        <v>0</v>
-      </c>
-      <c r="I34" s="21">
-        <v>0</v>
-      </c>
-      <c r="J34" s="22">
+      <c r="H34" s="19">
+        <v>0</v>
+      </c>
+      <c r="I34" s="19">
+        <v>0</v>
+      </c>
+      <c r="J34" s="20">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="K34" s="21">
-        <v>0</v>
-      </c>
-      <c r="L34" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" s="23" customFormat="1" ht="30" customHeight="1">
-      <c r="A35" s="30"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="21">
-        <v>0</v>
-      </c>
-      <c r="D35" s="21">
-        <v>0</v>
-      </c>
-      <c r="E35" s="22">
+      <c r="K34" s="19">
+        <v>0</v>
+      </c>
+      <c r="L34" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="30" customHeight="1">
+      <c r="A35" s="27"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="19">
+        <v>0</v>
+      </c>
+      <c r="D35" s="19">
+        <v>0</v>
+      </c>
+      <c r="E35" s="20">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F35" s="21">
-        <v>0</v>
-      </c>
-      <c r="G35" s="22">
+      <c r="F35" s="19">
+        <v>0</v>
+      </c>
+      <c r="G35" s="20">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H35" s="21">
-        <v>0</v>
-      </c>
-      <c r="I35" s="21">
-        <v>0</v>
-      </c>
-      <c r="J35" s="22">
+      <c r="H35" s="19">
+        <v>0</v>
+      </c>
+      <c r="I35" s="19">
+        <v>0</v>
+      </c>
+      <c r="J35" s="20">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="K35" s="21">
-        <v>0</v>
-      </c>
-      <c r="L35" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" s="23" customFormat="1" ht="30" customHeight="1">
-      <c r="A36" s="30"/>
-      <c r="B36" s="31"/>
-      <c r="C36" s="21">
-        <v>0</v>
-      </c>
-      <c r="D36" s="21">
-        <v>0</v>
-      </c>
-      <c r="E36" s="22">
+      <c r="K35" s="19">
+        <v>0</v>
+      </c>
+      <c r="L35" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="30" customHeight="1">
+      <c r="A36" s="27"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="19">
+        <v>0</v>
+      </c>
+      <c r="D36" s="19">
+        <v>0</v>
+      </c>
+      <c r="E36" s="20">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F36" s="21">
-        <v>0</v>
-      </c>
-      <c r="G36" s="22">
+      <c r="F36" s="19">
+        <v>0</v>
+      </c>
+      <c r="G36" s="20">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H36" s="21">
-        <v>0</v>
-      </c>
-      <c r="I36" s="21">
-        <v>0</v>
-      </c>
-      <c r="J36" s="22">
+      <c r="H36" s="19">
+        <v>0</v>
+      </c>
+      <c r="I36" s="19">
+        <v>0</v>
+      </c>
+      <c r="J36" s="20">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="K36" s="21">
-        <v>0</v>
-      </c>
-      <c r="L36" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" s="23" customFormat="1" ht="30" customHeight="1">
-      <c r="A37" s="30"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="21">
-        <v>0</v>
-      </c>
-      <c r="D37" s="21">
-        <v>0</v>
-      </c>
-      <c r="E37" s="22">
+      <c r="K36" s="19">
+        <v>0</v>
+      </c>
+      <c r="L36" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="30" customHeight="1">
+      <c r="A37" s="27"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="19">
+        <v>0</v>
+      </c>
+      <c r="D37" s="19">
+        <v>0</v>
+      </c>
+      <c r="E37" s="20">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F37" s="21">
-        <v>0</v>
-      </c>
-      <c r="G37" s="22">
+      <c r="F37" s="19">
+        <v>0</v>
+      </c>
+      <c r="G37" s="20">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H37" s="21">
-        <v>0</v>
-      </c>
-      <c r="I37" s="21">
-        <v>0</v>
-      </c>
-      <c r="J37" s="22">
+      <c r="H37" s="19">
+        <v>0</v>
+      </c>
+      <c r="I37" s="19">
+        <v>0</v>
+      </c>
+      <c r="J37" s="20">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="K37" s="21">
-        <v>0</v>
-      </c>
-      <c r="L37" s="21">
+      <c r="K37" s="19">
+        <v>0</v>
+      </c>
+      <c r="L37" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="30" customHeight="1">
-      <c r="A38" s="28"/>
-      <c r="B38" s="29"/>
+      <c r="A38" s="25"/>
+      <c r="B38" s="26"/>
       <c r="C38" s="19">
         <v>0</v>
       </c>
@@ -2115,8 +2109,8 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="30" customHeight="1">
-      <c r="A39" s="28"/>
-      <c r="B39" s="29"/>
+      <c r="A39" s="25"/>
+      <c r="B39" s="26"/>
       <c r="C39" s="19">
         <v>0</v>
       </c>
@@ -2152,8 +2146,8 @@
       </c>
     </row>
     <row r="40" spans="1:12" ht="30" customHeight="1">
-      <c r="A40" s="28"/>
-      <c r="B40" s="29"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="26"/>
       <c r="C40" s="19">
         <v>0</v>
       </c>
@@ -2189,8 +2183,8 @@
       </c>
     </row>
     <row r="41" spans="1:12" ht="30" customHeight="1">
-      <c r="A41" s="28"/>
-      <c r="B41" s="29"/>
+      <c r="A41" s="25"/>
+      <c r="B41" s="26"/>
       <c r="C41" s="19">
         <v>0</v>
       </c>
@@ -2226,8 +2220,8 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30" customHeight="1">
-      <c r="A42" s="28"/>
-      <c r="B42" s="29"/>
+      <c r="A42" s="25"/>
+      <c r="B42" s="26"/>
       <c r="C42" s="19">
         <v>0</v>
       </c>
@@ -2262,83 +2256,83 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12" s="23" customFormat="1" ht="30" customHeight="1">
-      <c r="A43" s="30"/>
-      <c r="B43" s="31"/>
-      <c r="C43" s="21">
-        <v>0</v>
-      </c>
-      <c r="D43" s="21">
-        <v>0</v>
-      </c>
-      <c r="E43" s="22">
+    <row r="43" spans="1:12" ht="30" customHeight="1">
+      <c r="A43" s="27"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="19">
+        <v>0</v>
+      </c>
+      <c r="D43" s="19">
+        <v>0</v>
+      </c>
+      <c r="E43" s="20">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F43" s="21">
-        <v>0</v>
-      </c>
-      <c r="G43" s="22">
+      <c r="F43" s="19">
+        <v>0</v>
+      </c>
+      <c r="G43" s="20">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H43" s="21">
-        <v>0</v>
-      </c>
-      <c r="I43" s="21">
-        <v>0</v>
-      </c>
-      <c r="J43" s="22">
+      <c r="H43" s="19">
+        <v>0</v>
+      </c>
+      <c r="I43" s="19">
+        <v>0</v>
+      </c>
+      <c r="J43" s="20">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="K43" s="21">
-        <v>0</v>
-      </c>
-      <c r="L43" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" s="23" customFormat="1" ht="30" customHeight="1">
-      <c r="A44" s="30"/>
-      <c r="B44" s="31"/>
-      <c r="C44" s="21">
-        <v>0</v>
-      </c>
-      <c r="D44" s="21">
-        <v>0</v>
-      </c>
-      <c r="E44" s="22">
+      <c r="K43" s="19">
+        <v>0</v>
+      </c>
+      <c r="L43" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="30" customHeight="1">
+      <c r="A44" s="27"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="19">
+        <v>0</v>
+      </c>
+      <c r="D44" s="19">
+        <v>0</v>
+      </c>
+      <c r="E44" s="20">
         <f t="shared" ref="E44:E50" si="12">IF(D44=0,0,(C44-D44)/D44)</f>
         <v>0</v>
       </c>
-      <c r="F44" s="21">
-        <v>0</v>
-      </c>
-      <c r="G44" s="22">
+      <c r="F44" s="19">
+        <v>0</v>
+      </c>
+      <c r="G44" s="20">
         <f t="shared" ref="G44:G50" si="13">IF(F44=0,0,(C44-F44)/F44)</f>
         <v>0</v>
       </c>
-      <c r="H44" s="21">
-        <v>0</v>
-      </c>
-      <c r="I44" s="21">
-        <v>0</v>
-      </c>
-      <c r="J44" s="22">
+      <c r="H44" s="19">
+        <v>0</v>
+      </c>
+      <c r="I44" s="19">
+        <v>0</v>
+      </c>
+      <c r="J44" s="20">
         <f t="shared" ref="J44:J50" si="14">IF(I44=0,0,(H44-I44)/I44)</f>
         <v>0</v>
       </c>
-      <c r="K44" s="21">
-        <v>0</v>
-      </c>
-      <c r="L44" s="21">
+      <c r="K44" s="19">
+        <v>0</v>
+      </c>
+      <c r="L44" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="30" customHeight="1">
-      <c r="A45" s="28"/>
-      <c r="B45" s="29"/>
+      <c r="A45" s="25"/>
+      <c r="B45" s="26"/>
       <c r="C45" s="19">
         <v>0</v>
       </c>
@@ -2374,8 +2368,8 @@
       </c>
     </row>
     <row r="46" spans="1:12" ht="30" customHeight="1">
-      <c r="A46" s="28"/>
-      <c r="B46" s="29"/>
+      <c r="A46" s="25"/>
+      <c r="B46" s="26"/>
       <c r="C46" s="19">
         <v>0</v>
       </c>
@@ -2411,8 +2405,8 @@
       </c>
     </row>
     <row r="47" spans="1:12" ht="30" customHeight="1">
-      <c r="A47" s="28"/>
-      <c r="B47" s="29"/>
+      <c r="A47" s="25"/>
+      <c r="B47" s="26"/>
       <c r="C47" s="19">
         <v>0</v>
       </c>
@@ -2448,8 +2442,8 @@
       </c>
     </row>
     <row r="48" spans="1:12" ht="30" customHeight="1">
-      <c r="A48" s="28"/>
-      <c r="B48" s="29"/>
+      <c r="A48" s="25"/>
+      <c r="B48" s="26"/>
       <c r="C48" s="19">
         <v>0</v>
       </c>
@@ -2485,8 +2479,8 @@
       </c>
     </row>
     <row r="49" spans="1:12" ht="30" customHeight="1">
-      <c r="A49" s="28"/>
-      <c r="B49" s="29"/>
+      <c r="A49" s="25"/>
+      <c r="B49" s="26"/>
       <c r="C49" s="19">
         <v>0</v>
       </c>
@@ -2522,8 +2516,8 @@
       </c>
     </row>
     <row r="50" spans="1:12" ht="30" customHeight="1">
-      <c r="A50" s="28"/>
-      <c r="B50" s="29"/>
+      <c r="A50" s="25"/>
+      <c r="B50" s="26"/>
       <c r="C50" s="19">
         <v>0</v>
       </c>
@@ -2559,8 +2553,8 @@
       </c>
     </row>
     <row r="51" spans="1:12" ht="30" customHeight="1">
-      <c r="A51" s="28"/>
-      <c r="B51" s="29"/>
+      <c r="A51" s="25"/>
+      <c r="B51" s="26"/>
       <c r="C51" s="19">
         <v>0</v>
       </c>
@@ -2595,157 +2589,157 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12" s="23" customFormat="1" ht="30" customHeight="1">
-      <c r="A52" s="30"/>
-      <c r="B52" s="31"/>
-      <c r="C52" s="21">
-        <v>0</v>
-      </c>
-      <c r="D52" s="21">
-        <v>0</v>
-      </c>
-      <c r="E52" s="22">
+    <row r="52" spans="1:12" ht="30" customHeight="1">
+      <c r="A52" s="27"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="19">
+        <v>0</v>
+      </c>
+      <c r="D52" s="19">
+        <v>0</v>
+      </c>
+      <c r="E52" s="20">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F52" s="21">
-        <v>0</v>
-      </c>
-      <c r="G52" s="22">
+      <c r="F52" s="19">
+        <v>0</v>
+      </c>
+      <c r="G52" s="20">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="H52" s="21">
-        <v>0</v>
-      </c>
-      <c r="I52" s="21">
-        <v>0</v>
-      </c>
-      <c r="J52" s="22">
+      <c r="H52" s="19">
+        <v>0</v>
+      </c>
+      <c r="I52" s="19">
+        <v>0</v>
+      </c>
+      <c r="J52" s="20">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K52" s="21">
-        <v>0</v>
-      </c>
-      <c r="L52" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" s="23" customFormat="1" ht="30" customHeight="1">
-      <c r="A53" s="30"/>
-      <c r="B53" s="31"/>
-      <c r="C53" s="21">
-        <v>0</v>
-      </c>
-      <c r="D53" s="21">
-        <v>0</v>
-      </c>
-      <c r="E53" s="22">
+      <c r="K52" s="19">
+        <v>0</v>
+      </c>
+      <c r="L52" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="30" customHeight="1">
+      <c r="A53" s="27"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="19">
+        <v>0</v>
+      </c>
+      <c r="D53" s="19">
+        <v>0</v>
+      </c>
+      <c r="E53" s="20">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F53" s="21">
-        <v>0</v>
-      </c>
-      <c r="G53" s="22">
+      <c r="F53" s="19">
+        <v>0</v>
+      </c>
+      <c r="G53" s="20">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="H53" s="21">
-        <v>0</v>
-      </c>
-      <c r="I53" s="21">
-        <v>0</v>
-      </c>
-      <c r="J53" s="22">
+      <c r="H53" s="19">
+        <v>0</v>
+      </c>
+      <c r="I53" s="19">
+        <v>0</v>
+      </c>
+      <c r="J53" s="20">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K53" s="21">
-        <v>0</v>
-      </c>
-      <c r="L53" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" s="23" customFormat="1" ht="30" customHeight="1">
-      <c r="A54" s="30"/>
-      <c r="B54" s="31"/>
-      <c r="C54" s="21">
-        <v>0</v>
-      </c>
-      <c r="D54" s="21">
-        <v>0</v>
-      </c>
-      <c r="E54" s="22">
+      <c r="K53" s="19">
+        <v>0</v>
+      </c>
+      <c r="L53" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="30" customHeight="1">
+      <c r="A54" s="27"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="19">
+        <v>0</v>
+      </c>
+      <c r="D54" s="19">
+        <v>0</v>
+      </c>
+      <c r="E54" s="20">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F54" s="21">
-        <v>0</v>
-      </c>
-      <c r="G54" s="22">
+      <c r="F54" s="19">
+        <v>0</v>
+      </c>
+      <c r="G54" s="20">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="H54" s="21">
-        <v>0</v>
-      </c>
-      <c r="I54" s="21">
-        <v>0</v>
-      </c>
-      <c r="J54" s="22">
+      <c r="H54" s="19">
+        <v>0</v>
+      </c>
+      <c r="I54" s="19">
+        <v>0</v>
+      </c>
+      <c r="J54" s="20">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K54" s="21">
-        <v>0</v>
-      </c>
-      <c r="L54" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" s="23" customFormat="1" ht="30" customHeight="1">
-      <c r="A55" s="30"/>
-      <c r="B55" s="31"/>
-      <c r="C55" s="21">
-        <v>0</v>
-      </c>
-      <c r="D55" s="21">
-        <v>0</v>
-      </c>
-      <c r="E55" s="22">
+      <c r="K54" s="19">
+        <v>0</v>
+      </c>
+      <c r="L54" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="30" customHeight="1">
+      <c r="A55" s="27"/>
+      <c r="B55" s="28"/>
+      <c r="C55" s="19">
+        <v>0</v>
+      </c>
+      <c r="D55" s="19">
+        <v>0</v>
+      </c>
+      <c r="E55" s="20">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F55" s="21">
-        <v>0</v>
-      </c>
-      <c r="G55" s="22">
+      <c r="F55" s="19">
+        <v>0</v>
+      </c>
+      <c r="G55" s="20">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="H55" s="21">
-        <v>0</v>
-      </c>
-      <c r="I55" s="21">
-        <v>0</v>
-      </c>
-      <c r="J55" s="22">
+      <c r="H55" s="19">
+        <v>0</v>
+      </c>
+      <c r="I55" s="19">
+        <v>0</v>
+      </c>
+      <c r="J55" s="20">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K55" s="21">
-        <v>0</v>
-      </c>
-      <c r="L55" s="21">
+      <c r="K55" s="19">
+        <v>0</v>
+      </c>
+      <c r="L55" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="30" customHeight="1">
-      <c r="A56" s="28"/>
-      <c r="B56" s="29"/>
+      <c r="A56" s="25"/>
+      <c r="B56" s="26"/>
       <c r="C56" s="19">
         <v>0</v>
       </c>
@@ -2781,8 +2775,8 @@
       </c>
     </row>
     <row r="57" spans="1:12" ht="30" customHeight="1">
-      <c r="A57" s="28"/>
-      <c r="B57" s="29"/>
+      <c r="A57" s="25"/>
+      <c r="B57" s="26"/>
       <c r="C57" s="19">
         <v>0</v>
       </c>
@@ -2818,8 +2812,8 @@
       </c>
     </row>
     <row r="58" spans="1:12" ht="30" customHeight="1">
-      <c r="A58" s="28"/>
-      <c r="B58" s="29"/>
+      <c r="A58" s="25"/>
+      <c r="B58" s="26"/>
       <c r="C58" s="19">
         <v>0</v>
       </c>
@@ -2855,8 +2849,8 @@
       </c>
     </row>
     <row r="59" spans="1:12" ht="30" customHeight="1">
-      <c r="A59" s="28"/>
-      <c r="B59" s="29"/>
+      <c r="A59" s="25"/>
+      <c r="B59" s="26"/>
       <c r="C59" s="19">
         <v>0</v>
       </c>
@@ -2892,8 +2886,8 @@
       </c>
     </row>
     <row r="60" spans="1:12" ht="30" customHeight="1">
-      <c r="A60" s="28"/>
-      <c r="B60" s="29"/>
+      <c r="A60" s="25"/>
+      <c r="B60" s="26"/>
       <c r="C60" s="19">
         <v>0</v>
       </c>
@@ -2928,120 +2922,120 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12" s="23" customFormat="1" ht="30" customHeight="1">
-      <c r="A61" s="30"/>
-      <c r="B61" s="31"/>
-      <c r="C61" s="21">
-        <v>0</v>
-      </c>
-      <c r="D61" s="21">
-        <v>0</v>
-      </c>
-      <c r="E61" s="22">
+    <row r="61" spans="1:12" ht="30" customHeight="1">
+      <c r="A61" s="27"/>
+      <c r="B61" s="28"/>
+      <c r="C61" s="19">
+        <v>0</v>
+      </c>
+      <c r="D61" s="19">
+        <v>0</v>
+      </c>
+      <c r="E61" s="20">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F61" s="21">
-        <v>0</v>
-      </c>
-      <c r="G61" s="22">
+      <c r="F61" s="19">
+        <v>0</v>
+      </c>
+      <c r="G61" s="20">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="H61" s="21">
-        <v>0</v>
-      </c>
-      <c r="I61" s="21">
-        <v>0</v>
-      </c>
-      <c r="J61" s="22">
+      <c r="H61" s="19">
+        <v>0</v>
+      </c>
+      <c r="I61" s="19">
+        <v>0</v>
+      </c>
+      <c r="J61" s="20">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K61" s="21">
-        <v>0</v>
-      </c>
-      <c r="L61" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" s="23" customFormat="1" ht="30" customHeight="1">
-      <c r="A62" s="30"/>
-      <c r="B62" s="31"/>
-      <c r="C62" s="21">
-        <v>0</v>
-      </c>
-      <c r="D62" s="21">
-        <v>0</v>
-      </c>
-      <c r="E62" s="22">
+      <c r="K61" s="19">
+        <v>0</v>
+      </c>
+      <c r="L61" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="30" customHeight="1">
+      <c r="A62" s="27"/>
+      <c r="B62" s="28"/>
+      <c r="C62" s="19">
+        <v>0</v>
+      </c>
+      <c r="D62" s="19">
+        <v>0</v>
+      </c>
+      <c r="E62" s="20">
         <f>IF(D62=0,0,(C62-D62)/D62)</f>
         <v>0</v>
       </c>
-      <c r="F62" s="21">
-        <v>0</v>
-      </c>
-      <c r="G62" s="22">
+      <c r="F62" s="19">
+        <v>0</v>
+      </c>
+      <c r="G62" s="20">
         <f>IF(F62=0,0,(C62-F62)/F62)</f>
         <v>0</v>
       </c>
-      <c r="H62" s="21">
-        <v>0</v>
-      </c>
-      <c r="I62" s="21">
-        <v>0</v>
-      </c>
-      <c r="J62" s="22">
+      <c r="H62" s="19">
+        <v>0</v>
+      </c>
+      <c r="I62" s="19">
+        <v>0</v>
+      </c>
+      <c r="J62" s="20">
         <f>IF(I62=0,0,(H62-I62)/I62)</f>
         <v>0</v>
       </c>
-      <c r="K62" s="21">
-        <v>0</v>
-      </c>
-      <c r="L62" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" s="23" customFormat="1" ht="30" customHeight="1">
-      <c r="A63" s="30"/>
-      <c r="B63" s="31"/>
-      <c r="C63" s="21">
-        <v>0</v>
-      </c>
-      <c r="D63" s="21">
-        <v>0</v>
-      </c>
-      <c r="E63" s="22">
+      <c r="K62" s="19">
+        <v>0</v>
+      </c>
+      <c r="L62" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="30" customHeight="1">
+      <c r="A63" s="27"/>
+      <c r="B63" s="28"/>
+      <c r="C63" s="19">
+        <v>0</v>
+      </c>
+      <c r="D63" s="19">
+        <v>0</v>
+      </c>
+      <c r="E63" s="20">
         <f t="shared" ref="E63:E68" si="18">IF(D63=0,0,(C63-D63)/D63)</f>
         <v>0</v>
       </c>
-      <c r="F63" s="21">
-        <v>0</v>
-      </c>
-      <c r="G63" s="22">
+      <c r="F63" s="19">
+        <v>0</v>
+      </c>
+      <c r="G63" s="20">
         <f t="shared" ref="G63:G68" si="19">IF(F63=0,0,(C63-F63)/F63)</f>
         <v>0</v>
       </c>
-      <c r="H63" s="21">
-        <v>0</v>
-      </c>
-      <c r="I63" s="21">
-        <v>0</v>
-      </c>
-      <c r="J63" s="22">
+      <c r="H63" s="19">
+        <v>0</v>
+      </c>
+      <c r="I63" s="19">
+        <v>0</v>
+      </c>
+      <c r="J63" s="20">
         <f t="shared" ref="J63:J68" si="20">IF(I63=0,0,(H63-I63)/I63)</f>
         <v>0</v>
       </c>
-      <c r="K63" s="21">
-        <v>0</v>
-      </c>
-      <c r="L63" s="21">
+      <c r="K63" s="19">
+        <v>0</v>
+      </c>
+      <c r="L63" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="30" customHeight="1">
-      <c r="A64" s="28"/>
-      <c r="B64" s="29"/>
+      <c r="A64" s="25"/>
+      <c r="B64" s="26"/>
       <c r="C64" s="19">
         <v>0</v>
       </c>
@@ -3077,8 +3071,8 @@
       </c>
     </row>
     <row r="65" spans="1:12" ht="30" customHeight="1">
-      <c r="A65" s="28"/>
-      <c r="B65" s="29"/>
+      <c r="A65" s="25"/>
+      <c r="B65" s="26"/>
       <c r="C65" s="19">
         <v>0</v>
       </c>
@@ -3114,8 +3108,8 @@
       </c>
     </row>
     <row r="66" spans="1:12" ht="30" customHeight="1">
-      <c r="A66" s="28"/>
-      <c r="B66" s="29"/>
+      <c r="A66" s="25"/>
+      <c r="B66" s="26"/>
       <c r="C66" s="19">
         <v>0</v>
       </c>
@@ -3151,8 +3145,8 @@
       </c>
     </row>
     <row r="67" spans="1:12" ht="30" customHeight="1">
-      <c r="A67" s="28"/>
-      <c r="B67" s="29"/>
+      <c r="A67" s="25"/>
+      <c r="B67" s="26"/>
       <c r="C67" s="19">
         <v>0</v>
       </c>
@@ -3188,8 +3182,8 @@
       </c>
     </row>
     <row r="68" spans="1:12" ht="30" customHeight="1">
-      <c r="A68" s="28"/>
-      <c r="B68" s="29"/>
+      <c r="A68" s="25"/>
+      <c r="B68" s="26"/>
       <c r="C68" s="19">
         <v>0</v>
       </c>
@@ -3225,8 +3219,8 @@
       </c>
     </row>
     <row r="69" spans="1:12" ht="30" customHeight="1">
-      <c r="A69" s="28"/>
-      <c r="B69" s="29"/>
+      <c r="A69" s="25"/>
+      <c r="B69" s="26"/>
       <c r="C69" s="19">
         <v>0</v>
       </c>
@@ -3262,8 +3256,8 @@
       </c>
     </row>
     <row r="70" spans="1:12" ht="30" customHeight="1">
-      <c r="A70" s="28"/>
-      <c r="B70" s="29"/>
+      <c r="A70" s="25"/>
+      <c r="B70" s="26"/>
       <c r="C70" s="19">
         <v>0</v>
       </c>
@@ -3299,8 +3293,8 @@
       </c>
     </row>
     <row r="71" spans="1:12" ht="30" customHeight="1">
-      <c r="A71" s="28"/>
-      <c r="B71" s="29"/>
+      <c r="A71" s="25"/>
+      <c r="B71" s="26"/>
       <c r="C71" s="19">
         <v>0</v>
       </c>
@@ -3335,157 +3329,157 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:12" s="23" customFormat="1" ht="30" customHeight="1">
-      <c r="A72" s="30"/>
-      <c r="B72" s="31"/>
-      <c r="C72" s="21">
-        <v>0</v>
-      </c>
-      <c r="D72" s="21">
-        <v>0</v>
-      </c>
-      <c r="E72" s="22">
+    <row r="72" spans="1:12" ht="30" customHeight="1">
+      <c r="A72" s="27"/>
+      <c r="B72" s="28"/>
+      <c r="C72" s="19">
+        <v>0</v>
+      </c>
+      <c r="D72" s="19">
+        <v>0</v>
+      </c>
+      <c r="E72" s="20">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="F72" s="21">
-        <v>0</v>
-      </c>
-      <c r="G72" s="22">
+      <c r="F72" s="19">
+        <v>0</v>
+      </c>
+      <c r="G72" s="20">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="H72" s="21">
-        <v>0</v>
-      </c>
-      <c r="I72" s="21">
-        <v>0</v>
-      </c>
-      <c r="J72" s="22">
+      <c r="H72" s="19">
+        <v>0</v>
+      </c>
+      <c r="I72" s="19">
+        <v>0</v>
+      </c>
+      <c r="J72" s="20">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="K72" s="21">
-        <v>0</v>
-      </c>
-      <c r="L72" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" s="23" customFormat="1" ht="30" customHeight="1">
-      <c r="A73" s="30"/>
-      <c r="B73" s="31"/>
-      <c r="C73" s="21">
-        <v>0</v>
-      </c>
-      <c r="D73" s="21">
-        <v>0</v>
-      </c>
-      <c r="E73" s="22">
+      <c r="K72" s="19">
+        <v>0</v>
+      </c>
+      <c r="L72" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="30" customHeight="1">
+      <c r="A73" s="27"/>
+      <c r="B73" s="28"/>
+      <c r="C73" s="19">
+        <v>0</v>
+      </c>
+      <c r="D73" s="19">
+        <v>0</v>
+      </c>
+      <c r="E73" s="20">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="F73" s="21">
-        <v>0</v>
-      </c>
-      <c r="G73" s="22">
+      <c r="F73" s="19">
+        <v>0</v>
+      </c>
+      <c r="G73" s="20">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="H73" s="21">
-        <v>0</v>
-      </c>
-      <c r="I73" s="21">
-        <v>0</v>
-      </c>
-      <c r="J73" s="22">
+      <c r="H73" s="19">
+        <v>0</v>
+      </c>
+      <c r="I73" s="19">
+        <v>0</v>
+      </c>
+      <c r="J73" s="20">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="K73" s="21">
-        <v>0</v>
-      </c>
-      <c r="L73" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" s="23" customFormat="1" ht="30" customHeight="1">
-      <c r="A74" s="30"/>
-      <c r="B74" s="31"/>
-      <c r="C74" s="21">
-        <v>0</v>
-      </c>
-      <c r="D74" s="21">
-        <v>0</v>
-      </c>
-      <c r="E74" s="22">
+      <c r="K73" s="19">
+        <v>0</v>
+      </c>
+      <c r="L73" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="30" customHeight="1">
+      <c r="A74" s="27"/>
+      <c r="B74" s="28"/>
+      <c r="C74" s="19">
+        <v>0</v>
+      </c>
+      <c r="D74" s="19">
+        <v>0</v>
+      </c>
+      <c r="E74" s="20">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="F74" s="21">
-        <v>0</v>
-      </c>
-      <c r="G74" s="22">
+      <c r="F74" s="19">
+        <v>0</v>
+      </c>
+      <c r="G74" s="20">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="H74" s="21">
-        <v>0</v>
-      </c>
-      <c r="I74" s="21">
-        <v>0</v>
-      </c>
-      <c r="J74" s="22">
+      <c r="H74" s="19">
+        <v>0</v>
+      </c>
+      <c r="I74" s="19">
+        <v>0</v>
+      </c>
+      <c r="J74" s="20">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="K74" s="21">
-        <v>0</v>
-      </c>
-      <c r="L74" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" s="23" customFormat="1" ht="30" customHeight="1">
-      <c r="A75" s="30"/>
-      <c r="B75" s="31"/>
-      <c r="C75" s="21">
-        <v>0</v>
-      </c>
-      <c r="D75" s="21">
-        <v>0</v>
-      </c>
-      <c r="E75" s="22">
+      <c r="K74" s="19">
+        <v>0</v>
+      </c>
+      <c r="L74" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="30" customHeight="1">
+      <c r="A75" s="27"/>
+      <c r="B75" s="28"/>
+      <c r="C75" s="19">
+        <v>0</v>
+      </c>
+      <c r="D75" s="19">
+        <v>0</v>
+      </c>
+      <c r="E75" s="20">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="F75" s="21">
-        <v>0</v>
-      </c>
-      <c r="G75" s="22">
+      <c r="F75" s="19">
+        <v>0</v>
+      </c>
+      <c r="G75" s="20">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="H75" s="21">
-        <v>0</v>
-      </c>
-      <c r="I75" s="21">
-        <v>0</v>
-      </c>
-      <c r="J75" s="22">
+      <c r="H75" s="19">
+        <v>0</v>
+      </c>
+      <c r="I75" s="19">
+        <v>0</v>
+      </c>
+      <c r="J75" s="20">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="K75" s="21">
-        <v>0</v>
-      </c>
-      <c r="L75" s="21">
+      <c r="K75" s="19">
+        <v>0</v>
+      </c>
+      <c r="L75" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="30" customHeight="1">
-      <c r="A76" s="28"/>
-      <c r="B76" s="29"/>
+      <c r="A76" s="25"/>
+      <c r="B76" s="26"/>
       <c r="C76" s="19">
         <v>0</v>
       </c>
@@ -3521,8 +3515,8 @@
       </c>
     </row>
     <row r="77" spans="1:12" ht="30" customHeight="1">
-      <c r="A77" s="28"/>
-      <c r="B77" s="29"/>
+      <c r="A77" s="25"/>
+      <c r="B77" s="26"/>
       <c r="C77" s="19">
         <v>0</v>
       </c>
@@ -3558,8 +3552,8 @@
       </c>
     </row>
     <row r="78" spans="1:12" ht="30" customHeight="1">
-      <c r="A78" s="28"/>
-      <c r="B78" s="29"/>
+      <c r="A78" s="25"/>
+      <c r="B78" s="26"/>
       <c r="C78" s="19">
         <v>0</v>
       </c>
@@ -3595,8 +3589,8 @@
       </c>
     </row>
     <row r="79" spans="1:12" ht="30" customHeight="1">
-      <c r="A79" s="28"/>
-      <c r="B79" s="29"/>
+      <c r="A79" s="25"/>
+      <c r="B79" s="26"/>
       <c r="C79" s="19">
         <v>0</v>
       </c>
@@ -3632,8 +3626,8 @@
       </c>
     </row>
     <row r="80" spans="1:12" ht="30" customHeight="1">
-      <c r="A80" s="28"/>
-      <c r="B80" s="29"/>
+      <c r="A80" s="25"/>
+      <c r="B80" s="26"/>
       <c r="C80" s="19">
         <v>0</v>
       </c>
@@ -3668,46 +3662,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:12" s="23" customFormat="1" ht="30" customHeight="1">
-      <c r="A81" s="30"/>
-      <c r="B81" s="31"/>
-      <c r="C81" s="21">
-        <v>0</v>
-      </c>
-      <c r="D81" s="21">
-        <v>0</v>
-      </c>
-      <c r="E81" s="22">
+    <row r="81" spans="1:12" ht="30" customHeight="1">
+      <c r="A81" s="27"/>
+      <c r="B81" s="28"/>
+      <c r="C81" s="19">
+        <v>0</v>
+      </c>
+      <c r="D81" s="19">
+        <v>0</v>
+      </c>
+      <c r="E81" s="20">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="F81" s="21">
-        <v>0</v>
-      </c>
-      <c r="G81" s="22">
+      <c r="F81" s="19">
+        <v>0</v>
+      </c>
+      <c r="G81" s="20">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="H81" s="21">
-        <v>0</v>
-      </c>
-      <c r="I81" s="21">
-        <v>0</v>
-      </c>
-      <c r="J81" s="22">
+      <c r="H81" s="19">
+        <v>0</v>
+      </c>
+      <c r="I81" s="19">
+        <v>0</v>
+      </c>
+      <c r="J81" s="20">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="K81" s="21">
-        <v>0</v>
-      </c>
-      <c r="L81" s="21">
+      <c r="K81" s="19">
+        <v>0</v>
+      </c>
+      <c r="L81" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="30" customHeight="1">
-      <c r="A82" s="28"/>
-      <c r="B82" s="29"/>
+      <c r="A82" s="25"/>
+      <c r="B82" s="26"/>
       <c r="C82" s="19">
         <v>0</v>
       </c>
@@ -3743,8 +3737,8 @@
       </c>
     </row>
     <row r="83" spans="1:12" ht="30" customHeight="1">
-      <c r="A83" s="28"/>
-      <c r="B83" s="29"/>
+      <c r="A83" s="25"/>
+      <c r="B83" s="26"/>
       <c r="C83" s="19">
         <v>0</v>
       </c>
@@ -3780,8 +3774,8 @@
       </c>
     </row>
     <row r="84" spans="1:12" ht="30" customHeight="1">
-      <c r="A84" s="28"/>
-      <c r="B84" s="29"/>
+      <c r="A84" s="25"/>
+      <c r="B84" s="26"/>
       <c r="C84" s="19">
         <v>0</v>
       </c>
@@ -3817,8 +3811,8 @@
       </c>
     </row>
     <row r="85" spans="1:12" ht="30" customHeight="1">
-      <c r="A85" s="28"/>
-      <c r="B85" s="29"/>
+      <c r="A85" s="25"/>
+      <c r="B85" s="26"/>
       <c r="C85" s="19">
         <v>0</v>
       </c>
@@ -3854,8 +3848,8 @@
       </c>
     </row>
     <row r="86" spans="1:12" ht="30" customHeight="1">
-      <c r="A86" s="28"/>
-      <c r="B86" s="29"/>
+      <c r="A86" s="25"/>
+      <c r="B86" s="26"/>
       <c r="C86" s="19">
         <v>0</v>
       </c>
@@ -3891,8 +3885,8 @@
       </c>
     </row>
     <row r="87" spans="1:12" ht="30" customHeight="1">
-      <c r="A87" s="28"/>
-      <c r="B87" s="29"/>
+      <c r="A87" s="25"/>
+      <c r="B87" s="26"/>
       <c r="C87" s="19">
         <v>0</v>
       </c>
@@ -3927,157 +3921,157 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:12" s="23" customFormat="1" ht="30" customHeight="1">
-      <c r="A88" s="30"/>
-      <c r="B88" s="31"/>
-      <c r="C88" s="21">
-        <v>0</v>
-      </c>
-      <c r="D88" s="21">
-        <v>0</v>
-      </c>
-      <c r="E88" s="22">
+    <row r="88" spans="1:12" ht="30" customHeight="1">
+      <c r="A88" s="27"/>
+      <c r="B88" s="28"/>
+      <c r="C88" s="19">
+        <v>0</v>
+      </c>
+      <c r="D88" s="19">
+        <v>0</v>
+      </c>
+      <c r="E88" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="F88" s="21">
-        <v>0</v>
-      </c>
-      <c r="G88" s="22">
+      <c r="F88" s="19">
+        <v>0</v>
+      </c>
+      <c r="G88" s="20">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="H88" s="21">
-        <v>0</v>
-      </c>
-      <c r="I88" s="21">
-        <v>0</v>
-      </c>
-      <c r="J88" s="22">
+      <c r="H88" s="19">
+        <v>0</v>
+      </c>
+      <c r="I88" s="19">
+        <v>0</v>
+      </c>
+      <c r="J88" s="20">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="K88" s="21">
-        <v>0</v>
-      </c>
-      <c r="L88" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" s="23" customFormat="1" ht="30" customHeight="1">
-      <c r="A89" s="30"/>
-      <c r="B89" s="31"/>
-      <c r="C89" s="21">
-        <v>0</v>
-      </c>
-      <c r="D89" s="21">
-        <v>0</v>
-      </c>
-      <c r="E89" s="22">
+      <c r="K88" s="19">
+        <v>0</v>
+      </c>
+      <c r="L88" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="30" customHeight="1">
+      <c r="A89" s="27"/>
+      <c r="B89" s="28"/>
+      <c r="C89" s="19">
+        <v>0</v>
+      </c>
+      <c r="D89" s="19">
+        <v>0</v>
+      </c>
+      <c r="E89" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="F89" s="21">
-        <v>0</v>
-      </c>
-      <c r="G89" s="22">
+      <c r="F89" s="19">
+        <v>0</v>
+      </c>
+      <c r="G89" s="20">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="H89" s="21">
-        <v>0</v>
-      </c>
-      <c r="I89" s="21">
-        <v>0</v>
-      </c>
-      <c r="J89" s="22">
+      <c r="H89" s="19">
+        <v>0</v>
+      </c>
+      <c r="I89" s="19">
+        <v>0</v>
+      </c>
+      <c r="J89" s="20">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="K89" s="21">
-        <v>0</v>
-      </c>
-      <c r="L89" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" s="23" customFormat="1" ht="30" customHeight="1">
-      <c r="A90" s="30"/>
-      <c r="B90" s="31"/>
-      <c r="C90" s="21">
-        <v>0</v>
-      </c>
-      <c r="D90" s="21">
-        <v>0</v>
-      </c>
-      <c r="E90" s="22">
+      <c r="K89" s="19">
+        <v>0</v>
+      </c>
+      <c r="L89" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="30" customHeight="1">
+      <c r="A90" s="27"/>
+      <c r="B90" s="28"/>
+      <c r="C90" s="19">
+        <v>0</v>
+      </c>
+      <c r="D90" s="19">
+        <v>0</v>
+      </c>
+      <c r="E90" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="F90" s="21">
-        <v>0</v>
-      </c>
-      <c r="G90" s="22">
+      <c r="F90" s="19">
+        <v>0</v>
+      </c>
+      <c r="G90" s="20">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="H90" s="21">
-        <v>0</v>
-      </c>
-      <c r="I90" s="21">
-        <v>0</v>
-      </c>
-      <c r="J90" s="22">
+      <c r="H90" s="19">
+        <v>0</v>
+      </c>
+      <c r="I90" s="19">
+        <v>0</v>
+      </c>
+      <c r="J90" s="20">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="K90" s="21">
-        <v>0</v>
-      </c>
-      <c r="L90" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" s="23" customFormat="1" ht="30" customHeight="1">
-      <c r="A91" s="30"/>
-      <c r="B91" s="31"/>
-      <c r="C91" s="21">
-        <v>0</v>
-      </c>
-      <c r="D91" s="21">
-        <v>0</v>
-      </c>
-      <c r="E91" s="22">
+      <c r="K90" s="19">
+        <v>0</v>
+      </c>
+      <c r="L90" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="30" customHeight="1">
+      <c r="A91" s="27"/>
+      <c r="B91" s="28"/>
+      <c r="C91" s="19">
+        <v>0</v>
+      </c>
+      <c r="D91" s="19">
+        <v>0</v>
+      </c>
+      <c r="E91" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="F91" s="21">
-        <v>0</v>
-      </c>
-      <c r="G91" s="22">
+      <c r="F91" s="19">
+        <v>0</v>
+      </c>
+      <c r="G91" s="20">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="H91" s="21">
-        <v>0</v>
-      </c>
-      <c r="I91" s="21">
-        <v>0</v>
-      </c>
-      <c r="J91" s="22">
+      <c r="H91" s="19">
+        <v>0</v>
+      </c>
+      <c r="I91" s="19">
+        <v>0</v>
+      </c>
+      <c r="J91" s="20">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="K91" s="21">
-        <v>0</v>
-      </c>
-      <c r="L91" s="21">
+      <c r="K91" s="19">
+        <v>0</v>
+      </c>
+      <c r="L91" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="30" customHeight="1">
-      <c r="A92" s="28"/>
-      <c r="B92" s="29"/>
+      <c r="A92" s="25"/>
+      <c r="B92" s="26"/>
       <c r="C92" s="19">
         <v>0</v>
       </c>
@@ -4113,8 +4107,8 @@
       </c>
     </row>
     <row r="93" spans="1:12" ht="30" customHeight="1">
-      <c r="A93" s="28"/>
-      <c r="B93" s="29"/>
+      <c r="A93" s="25"/>
+      <c r="B93" s="26"/>
       <c r="C93" s="19">
         <v>0</v>
       </c>
@@ -4150,8 +4144,8 @@
       </c>
     </row>
     <row r="94" spans="1:12" ht="30" customHeight="1">
-      <c r="A94" s="28"/>
-      <c r="B94" s="29"/>
+      <c r="A94" s="25"/>
+      <c r="B94" s="26"/>
       <c r="C94" s="19">
         <v>0</v>
       </c>
@@ -4187,8 +4181,8 @@
       </c>
     </row>
     <row r="95" spans="1:12" ht="30" customHeight="1">
-      <c r="A95" s="28"/>
-      <c r="B95" s="29"/>
+      <c r="A95" s="25"/>
+      <c r="B95" s="26"/>
       <c r="C95" s="19">
         <v>0</v>
       </c>
@@ -4224,8 +4218,8 @@
       </c>
     </row>
     <row r="96" spans="1:12" ht="30" customHeight="1">
-      <c r="A96" s="28"/>
-      <c r="B96" s="29"/>
+      <c r="A96" s="25"/>
+      <c r="B96" s="26"/>
       <c r="C96" s="19">
         <v>0</v>
       </c>
@@ -4260,120 +4254,120 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:12" s="23" customFormat="1" ht="30" customHeight="1">
-      <c r="A97" s="30"/>
-      <c r="B97" s="31"/>
-      <c r="C97" s="21">
-        <v>0</v>
-      </c>
-      <c r="D97" s="21">
-        <v>0</v>
-      </c>
-      <c r="E97" s="22">
+    <row r="97" spans="1:12" ht="30" customHeight="1">
+      <c r="A97" s="27"/>
+      <c r="B97" s="28"/>
+      <c r="C97" s="19">
+        <v>0</v>
+      </c>
+      <c r="D97" s="19">
+        <v>0</v>
+      </c>
+      <c r="E97" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="F97" s="21">
-        <v>0</v>
-      </c>
-      <c r="G97" s="22">
+      <c r="F97" s="19">
+        <v>0</v>
+      </c>
+      <c r="G97" s="20">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="H97" s="21">
-        <v>0</v>
-      </c>
-      <c r="I97" s="21">
-        <v>0</v>
-      </c>
-      <c r="J97" s="22">
+      <c r="H97" s="19">
+        <v>0</v>
+      </c>
+      <c r="I97" s="19">
+        <v>0</v>
+      </c>
+      <c r="J97" s="20">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="K97" s="21">
-        <v>0</v>
-      </c>
-      <c r="L97" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" s="23" customFormat="1" ht="30" customHeight="1">
-      <c r="A98" s="30"/>
-      <c r="B98" s="31"/>
-      <c r="C98" s="21">
-        <v>0</v>
-      </c>
-      <c r="D98" s="21">
-        <v>0</v>
-      </c>
-      <c r="E98" s="22">
+      <c r="K97" s="19">
+        <v>0</v>
+      </c>
+      <c r="L97" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="30" customHeight="1">
+      <c r="A98" s="27"/>
+      <c r="B98" s="28"/>
+      <c r="C98" s="19">
+        <v>0</v>
+      </c>
+      <c r="D98" s="19">
+        <v>0</v>
+      </c>
+      <c r="E98" s="20">
         <f>IF(D98=0,0,(C98-D98)/D98)</f>
         <v>0</v>
       </c>
-      <c r="F98" s="21">
-        <v>0</v>
-      </c>
-      <c r="G98" s="22">
+      <c r="F98" s="19">
+        <v>0</v>
+      </c>
+      <c r="G98" s="20">
         <f>IF(F98=0,0,(C98-F98)/F98)</f>
         <v>0</v>
       </c>
-      <c r="H98" s="21">
-        <v>0</v>
-      </c>
-      <c r="I98" s="21">
-        <v>0</v>
-      </c>
-      <c r="J98" s="22">
+      <c r="H98" s="19">
+        <v>0</v>
+      </c>
+      <c r="I98" s="19">
+        <v>0</v>
+      </c>
+      <c r="J98" s="20">
         <f>IF(I98=0,0,(H98-I98)/I98)</f>
         <v>0</v>
       </c>
-      <c r="K98" s="21">
-        <v>0</v>
-      </c>
-      <c r="L98" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" s="23" customFormat="1" ht="30" customHeight="1">
-      <c r="A99" s="30"/>
-      <c r="B99" s="31"/>
-      <c r="C99" s="21">
-        <v>0</v>
-      </c>
-      <c r="D99" s="21">
-        <v>0</v>
-      </c>
-      <c r="E99" s="22">
+      <c r="K98" s="19">
+        <v>0</v>
+      </c>
+      <c r="L98" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="30" customHeight="1">
+      <c r="A99" s="27"/>
+      <c r="B99" s="28"/>
+      <c r="C99" s="19">
+        <v>0</v>
+      </c>
+      <c r="D99" s="19">
+        <v>0</v>
+      </c>
+      <c r="E99" s="20">
         <f t="shared" ref="E99:E105" si="27">IF(D99=0,0,(C99-D99)/D99)</f>
         <v>0</v>
       </c>
-      <c r="F99" s="21">
-        <v>0</v>
-      </c>
-      <c r="G99" s="22">
+      <c r="F99" s="19">
+        <v>0</v>
+      </c>
+      <c r="G99" s="20">
         <f t="shared" ref="G99:G105" si="28">IF(F99=0,0,(C99-F99)/F99)</f>
         <v>0</v>
       </c>
-      <c r="H99" s="21">
-        <v>0</v>
-      </c>
-      <c r="I99" s="21">
-        <v>0</v>
-      </c>
-      <c r="J99" s="22">
+      <c r="H99" s="19">
+        <v>0</v>
+      </c>
+      <c r="I99" s="19">
+        <v>0</v>
+      </c>
+      <c r="J99" s="20">
         <f t="shared" ref="J99:J105" si="29">IF(I99=0,0,(H99-I99)/I99)</f>
         <v>0</v>
       </c>
-      <c r="K99" s="21">
-        <v>0</v>
-      </c>
-      <c r="L99" s="21">
+      <c r="K99" s="19">
+        <v>0</v>
+      </c>
+      <c r="L99" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:12" ht="30" customHeight="1">
-      <c r="A100" s="28"/>
-      <c r="B100" s="29"/>
+      <c r="A100" s="25"/>
+      <c r="B100" s="26"/>
       <c r="C100" s="19">
         <v>0</v>
       </c>
@@ -4409,8 +4403,8 @@
       </c>
     </row>
     <row r="101" spans="1:12" ht="30" customHeight="1">
-      <c r="A101" s="28"/>
-      <c r="B101" s="29"/>
+      <c r="A101" s="25"/>
+      <c r="B101" s="26"/>
       <c r="C101" s="19">
         <v>0</v>
       </c>
@@ -4446,8 +4440,8 @@
       </c>
     </row>
     <row r="102" spans="1:12" ht="30" customHeight="1">
-      <c r="A102" s="28"/>
-      <c r="B102" s="29"/>
+      <c r="A102" s="25"/>
+      <c r="B102" s="26"/>
       <c r="C102" s="19">
         <v>0</v>
       </c>
@@ -4483,8 +4477,8 @@
       </c>
     </row>
     <row r="103" spans="1:12" ht="30" customHeight="1">
-      <c r="A103" s="28"/>
-      <c r="B103" s="29"/>
+      <c r="A103" s="25"/>
+      <c r="B103" s="26"/>
       <c r="C103" s="19">
         <v>0</v>
       </c>
@@ -4520,8 +4514,8 @@
       </c>
     </row>
     <row r="104" spans="1:12" ht="30" customHeight="1">
-      <c r="A104" s="28"/>
-      <c r="B104" s="29"/>
+      <c r="A104" s="25"/>
+      <c r="B104" s="26"/>
       <c r="C104" s="19">
         <v>0</v>
       </c>
@@ -4557,8 +4551,8 @@
       </c>
     </row>
     <row r="105" spans="1:12" ht="30" customHeight="1">
-      <c r="A105" s="28"/>
-      <c r="B105" s="29"/>
+      <c r="A105" s="25"/>
+      <c r="B105" s="26"/>
       <c r="C105" s="19">
         <v>0</v>
       </c>
@@ -4594,7 +4588,7 @@
       </c>
     </row>
     <row r="106" spans="1:12" ht="30" customHeight="1">
-      <c r="A106" s="25"/>
+      <c r="A106" s="22"/>
       <c r="B106" s="14" t="s">
         <v>12</v>
       </c>
